--- a/600 vocabulary common.xlsx
+++ b/600 vocabulary common.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haith\OneDrive\Desktop\Project Coding\AnkiConnectJavascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E997D07-9E00-4B60-99DF-2D23610170F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D7D044-E21B-431A-BC47-1D7488DADC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8705A7C4-DBF4-4EA4-AC57-4411831D823D}"/>
   </bookViews>
@@ -11849,37 +11849,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -12252,8 +12222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C53EE86-D375-4DA2-9D9C-6E042FFD3B4D}">
   <dimension ref="A1:P668"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView tabSelected="1" topLeftCell="A411" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H424" sqref="H424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12264,7 +12234,7 @@
     <col min="5" max="5" width="30.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="33.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="32.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32.21875" style="1" customWidth="1"/>
@@ -12313,7 +12283,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -12351,7 +12321,7 @@
         <v>8</v>
       </c>
       <c r="O2" t="b">
-        <f>RIGHT(H2, 1) = "?"</f>
+        <f t="shared" ref="O2:O65" si="0">RIGHT(H2, 1) = "?"</f>
         <v>0</v>
       </c>
       <c r="P2" s="5" t="s">
@@ -12396,7 +12366,7 @@
         <v>14</v>
       </c>
       <c r="O3" t="b">
-        <f>RIGHT(H3, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P3" s="5" t="s">
@@ -12441,7 +12411,7 @@
         <v>21</v>
       </c>
       <c r="O4" t="b">
-        <f>RIGHT(H4, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4" s="5" t="s">
@@ -12486,7 +12456,7 @@
         <v>27</v>
       </c>
       <c r="O5" t="b">
-        <f>RIGHT(H5, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P5" s="5" t="s">
@@ -12531,7 +12501,7 @@
         <v>34</v>
       </c>
       <c r="O6" t="b">
-        <f>RIGHT(H6, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
@@ -12576,7 +12546,7 @@
         <v>41</v>
       </c>
       <c r="O7" t="b">
-        <f>RIGHT(H7, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12618,7 +12588,7 @@
         <v>47</v>
       </c>
       <c r="O8" t="b">
-        <f>RIGHT(H8, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12660,7 +12630,7 @@
         <v>53</v>
       </c>
       <c r="O9" t="b">
-        <f>RIGHT(H9, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12702,11 +12672,11 @@
         <v>59</v>
       </c>
       <c r="O10" t="b">
-        <f>RIGHT(H10, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
@@ -12744,11 +12714,11 @@
         <v>65</v>
       </c>
       <c r="O11" t="b">
-        <f>RIGHT(H11, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>67</v>
       </c>
@@ -12786,7 +12756,7 @@
         <v>71</v>
       </c>
       <c r="O12" t="b">
-        <f>RIGHT(H12, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -12828,7 +12798,7 @@
         <v>77</v>
       </c>
       <c r="O13" t="b">
-        <f>RIGHT(H13, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12870,11 +12840,11 @@
         <v>83</v>
       </c>
       <c r="O14" t="b">
-        <f>RIGHT(H14, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>85</v>
       </c>
@@ -12912,11 +12882,11 @@
         <v>89</v>
       </c>
       <c r="O15" t="b">
-        <f>RIGHT(H15, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>91</v>
       </c>
@@ -12954,11 +12924,11 @@
         <v>95</v>
       </c>
       <c r="O16" t="b">
-        <f>RIGHT(H16, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>97</v>
       </c>
@@ -12996,7 +12966,7 @@
         <v>101</v>
       </c>
       <c r="O17" t="b">
-        <f>RIGHT(H17, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13038,7 +13008,7 @@
         <v>107</v>
       </c>
       <c r="O18" t="b">
-        <f>RIGHT(H18, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13080,7 +13050,7 @@
         <v>113</v>
       </c>
       <c r="O19" t="b">
-        <f>RIGHT(H19, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13122,7 +13092,7 @@
         <v>119</v>
       </c>
       <c r="O20" t="b">
-        <f>RIGHT(H20, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13164,7 +13134,7 @@
         <v>125</v>
       </c>
       <c r="O21" t="b">
-        <f>RIGHT(H21, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13206,11 +13176,11 @@
         <v>77</v>
       </c>
       <c r="O22" t="b">
-        <f>RIGHT(H22, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>130</v>
       </c>
@@ -13248,11 +13218,11 @@
         <v>134</v>
       </c>
       <c r="O23" t="b">
-        <f>RIGHT(H23, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>136</v>
       </c>
@@ -13290,7 +13260,7 @@
         <v>140</v>
       </c>
       <c r="O24" t="b">
-        <f>RIGHT(H24, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13332,7 +13302,7 @@
         <v>146</v>
       </c>
       <c r="O25" t="b">
-        <f>RIGHT(H25, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13374,7 +13344,7 @@
         <v>152</v>
       </c>
       <c r="O26" t="b">
-        <f>RIGHT(H26, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13416,7 +13386,7 @@
         <v>158</v>
       </c>
       <c r="O27" t="b">
-        <f>RIGHT(H27, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13458,11 +13428,11 @@
         <v>164</v>
       </c>
       <c r="O28" t="b">
-        <f>RIGHT(H28, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>166</v>
       </c>
@@ -13500,7 +13470,7 @@
         <v>170</v>
       </c>
       <c r="O29" t="b">
-        <f>RIGHT(H29, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13542,7 +13512,7 @@
         <v>176</v>
       </c>
       <c r="O30" t="b">
-        <f>RIGHT(H30, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13584,7 +13554,7 @@
         <v>182</v>
       </c>
       <c r="O31" t="b">
-        <f>RIGHT(H31, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13626,7 +13596,7 @@
         <v>188</v>
       </c>
       <c r="O32" t="b">
-        <f>RIGHT(H32, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13668,7 +13638,7 @@
         <v>194</v>
       </c>
       <c r="O33" t="b">
-        <f>RIGHT(H33, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13710,11 +13680,11 @@
         <v>200</v>
       </c>
       <c r="O34" t="b">
-        <f>RIGHT(H34, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>202</v>
       </c>
@@ -13752,7 +13722,7 @@
         <v>206</v>
       </c>
       <c r="O35" t="b">
-        <f>RIGHT(H35, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13794,11 +13764,11 @@
         <v>212</v>
       </c>
       <c r="O36" t="b">
-        <f>RIGHT(H36, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>214</v>
       </c>
@@ -13836,7 +13806,7 @@
         <v>218</v>
       </c>
       <c r="O37" t="b">
-        <f>RIGHT(H37, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -13878,11 +13848,11 @@
         <v>224</v>
       </c>
       <c r="O38" t="b">
-        <f>RIGHT(H38, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>226</v>
       </c>
@@ -13920,11 +13890,11 @@
         <v>230</v>
       </c>
       <c r="O39" t="b">
-        <f>RIGHT(H39, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>232</v>
       </c>
@@ -13962,7 +13932,7 @@
         <v>236</v>
       </c>
       <c r="O40" t="b">
-        <f>RIGHT(H40, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14004,11 +13974,11 @@
         <v>242</v>
       </c>
       <c r="O41" t="b">
-        <f>RIGHT(H41, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>244</v>
       </c>
@@ -14046,7 +14016,7 @@
         <v>248</v>
       </c>
       <c r="O42" t="b">
-        <f>RIGHT(H42, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14088,7 +14058,7 @@
         <v>254</v>
       </c>
       <c r="O43" t="b">
-        <f>RIGHT(H43, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14130,7 +14100,7 @@
         <v>260</v>
       </c>
       <c r="O44" t="b">
-        <f>RIGHT(H44, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14172,11 +14142,11 @@
         <v>266</v>
       </c>
       <c r="O45" t="b">
-        <f>RIGHT(H45, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>268</v>
       </c>
@@ -14214,7 +14184,7 @@
         <v>272</v>
       </c>
       <c r="O46" t="b">
-        <f>RIGHT(H46, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14256,7 +14226,7 @@
         <v>278</v>
       </c>
       <c r="O47" t="b">
-        <f>RIGHT(H47, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14298,11 +14268,11 @@
         <v>284</v>
       </c>
       <c r="O48" t="b">
-        <f>RIGHT(H48, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>286</v>
       </c>
@@ -14340,11 +14310,11 @@
         <v>290</v>
       </c>
       <c r="O49" t="b">
-        <f>RIGHT(H49, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>292</v>
       </c>
@@ -14382,7 +14352,7 @@
         <v>296</v>
       </c>
       <c r="O50" t="b">
-        <f>RIGHT(H50, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14424,7 +14394,7 @@
         <v>302</v>
       </c>
       <c r="O51" t="b">
-        <f>RIGHT(H51, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14466,7 +14436,7 @@
         <v>308</v>
       </c>
       <c r="O52" t="b">
-        <f>RIGHT(H52, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14508,11 +14478,11 @@
         <v>314</v>
       </c>
       <c r="O53" t="b">
-        <f>RIGHT(H53, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>316</v>
       </c>
@@ -14550,7 +14520,7 @@
         <v>320</v>
       </c>
       <c r="O54" t="b">
-        <f>RIGHT(H54, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14592,7 +14562,7 @@
         <v>326</v>
       </c>
       <c r="O55" t="b">
-        <f>RIGHT(H55, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14634,7 +14604,7 @@
         <v>332</v>
       </c>
       <c r="O56" t="b">
-        <f>RIGHT(H56, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14676,11 +14646,11 @@
         <v>338</v>
       </c>
       <c r="O57" t="b">
-        <f>RIGHT(H57, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>340</v>
       </c>
@@ -14718,7 +14688,7 @@
         <v>344</v>
       </c>
       <c r="O58" t="b">
-        <f>RIGHT(H58, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14760,7 +14730,7 @@
         <v>350</v>
       </c>
       <c r="O59" t="b">
-        <f>RIGHT(H59, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14802,7 +14772,7 @@
         <v>356</v>
       </c>
       <c r="O60" t="b">
-        <f>RIGHT(H60, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14844,7 +14814,7 @@
         <v>362</v>
       </c>
       <c r="O61" t="b">
-        <f>RIGHT(H61, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14886,7 +14856,7 @@
         <v>368</v>
       </c>
       <c r="O62" t="b">
-        <f>RIGHT(H62, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -14928,11 +14898,11 @@
         <v>374</v>
       </c>
       <c r="O63" t="b">
-        <f>RIGHT(H63, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>376</v>
       </c>
@@ -14970,11 +14940,11 @@
         <v>380</v>
       </c>
       <c r="O64" t="b">
-        <f>RIGHT(H64, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>382</v>
       </c>
@@ -15012,7 +14982,7 @@
         <v>386</v>
       </c>
       <c r="O65" t="b">
-        <f>RIGHT(H65, 1) = "?"</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -15054,7 +15024,7 @@
         <v>392</v>
       </c>
       <c r="O66" t="b">
-        <f>RIGHT(H66, 1) = "?"</f>
+        <f t="shared" ref="O66:O129" si="1">RIGHT(H66, 1) = "?"</f>
         <v>0</v>
       </c>
     </row>
@@ -15096,11 +15066,11 @@
         <v>398</v>
       </c>
       <c r="O67" t="b">
-        <f>RIGHT(H67, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>400</v>
       </c>
@@ -15138,7 +15108,7 @@
         <v>404</v>
       </c>
       <c r="O68" t="b">
-        <f>RIGHT(H68, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -15180,7 +15150,7 @@
         <v>410</v>
       </c>
       <c r="O69" t="b">
-        <f>RIGHT(H69, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -15222,11 +15192,11 @@
         <v>416</v>
       </c>
       <c r="O70" t="b">
-        <f>RIGHT(H70, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>418</v>
       </c>
@@ -15264,7 +15234,7 @@
         <v>422</v>
       </c>
       <c r="O71" t="b">
-        <f>RIGHT(H71, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -15306,7 +15276,7 @@
         <v>428</v>
       </c>
       <c r="O72" t="b">
-        <f>RIGHT(H72, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -15348,7 +15318,7 @@
         <v>434</v>
       </c>
       <c r="O73" t="b">
-        <f>RIGHT(H73, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -15390,7 +15360,7 @@
         <v>440</v>
       </c>
       <c r="O74" t="b">
-        <f>RIGHT(H74, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -15432,7 +15402,7 @@
         <v>446</v>
       </c>
       <c r="O75" t="b">
-        <f>RIGHT(H75, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -15474,11 +15444,11 @@
         <v>452</v>
       </c>
       <c r="O76" t="b">
-        <f>RIGHT(H76, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>454</v>
       </c>
@@ -15516,7 +15486,7 @@
         <v>458</v>
       </c>
       <c r="O77" t="b">
-        <f>RIGHT(H77, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -15558,11 +15528,11 @@
         <v>464</v>
       </c>
       <c r="O78" t="b">
-        <f>RIGHT(H78, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>466</v>
       </c>
@@ -15600,7 +15570,7 @@
         <v>470</v>
       </c>
       <c r="O79" t="b">
-        <f>RIGHT(H79, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -15642,7 +15612,7 @@
         <v>476</v>
       </c>
       <c r="O80" t="b">
-        <f>RIGHT(H80, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -15684,7 +15654,7 @@
         <v>482</v>
       </c>
       <c r="O81" t="b">
-        <f>RIGHT(H81, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -15726,7 +15696,7 @@
         <v>488</v>
       </c>
       <c r="O82" t="b">
-        <f>RIGHT(H82, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -15768,11 +15738,11 @@
         <v>494</v>
       </c>
       <c r="O83" t="b">
-        <f>RIGHT(H83, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>496</v>
       </c>
@@ -15810,7 +15780,7 @@
         <v>500</v>
       </c>
       <c r="O84" t="b">
-        <f>RIGHT(H84, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -15852,7 +15822,7 @@
         <v>506</v>
       </c>
       <c r="O85" t="b">
-        <f>RIGHT(H85, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -15894,11 +15864,11 @@
         <v>512</v>
       </c>
       <c r="O86" t="b">
-        <f>RIGHT(H86, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>514</v>
       </c>
@@ -15936,11 +15906,11 @@
         <v>518</v>
       </c>
       <c r="O87" t="b">
-        <f>RIGHT(H87, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>520</v>
       </c>
@@ -15978,7 +15948,7 @@
         <v>524</v>
       </c>
       <c r="O88" t="b">
-        <f>RIGHT(H88, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16020,11 +15990,11 @@
         <v>530</v>
       </c>
       <c r="O89" t="b">
-        <f>RIGHT(H89, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>535</v>
       </c>
@@ -16062,7 +16032,7 @@
         <v>539</v>
       </c>
       <c r="O90" t="b">
-        <f>RIGHT(H90, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16104,7 +16074,7 @@
         <v>545</v>
       </c>
       <c r="O91" t="b">
-        <f>RIGHT(H91, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16146,7 +16116,7 @@
         <v>551</v>
       </c>
       <c r="O92" t="b">
-        <f>RIGHT(H92, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16188,11 +16158,11 @@
         <v>555</v>
       </c>
       <c r="O93" t="b">
-        <f>RIGHT(H93, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>382</v>
       </c>
@@ -16230,7 +16200,7 @@
         <v>559</v>
       </c>
       <c r="O94" t="b">
-        <f>RIGHT(H94, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16272,7 +16242,7 @@
         <v>563</v>
       </c>
       <c r="O95" t="b">
-        <f>RIGHT(H95, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16314,7 +16284,7 @@
         <v>569</v>
       </c>
       <c r="O96" t="b">
-        <f>RIGHT(H96, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16356,7 +16326,7 @@
         <v>575</v>
       </c>
       <c r="O97" t="b">
-        <f>RIGHT(H97, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16398,7 +16368,7 @@
         <v>581</v>
       </c>
       <c r="O98" t="b">
-        <f>RIGHT(H98, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16440,11 +16410,11 @@
         <v>588</v>
       </c>
       <c r="O99" t="b">
-        <f>RIGHT(H99, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>590</v>
       </c>
@@ -16482,11 +16452,11 @@
         <v>594</v>
       </c>
       <c r="O100" t="b">
-        <f>RIGHT(H100, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>596</v>
       </c>
@@ -16524,7 +16494,7 @@
         <v>600</v>
       </c>
       <c r="O101" t="b">
-        <f>RIGHT(H101, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16566,11 +16536,11 @@
         <v>606</v>
       </c>
       <c r="O102" t="b">
-        <f>RIGHT(H102, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>608</v>
       </c>
@@ -16608,7 +16578,7 @@
         <v>612</v>
       </c>
       <c r="O103" t="b">
-        <f>RIGHT(H103, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16650,7 +16620,7 @@
         <v>618</v>
       </c>
       <c r="O104" t="b">
-        <f>RIGHT(H104, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16692,7 +16662,7 @@
         <v>624</v>
       </c>
       <c r="O105" t="b">
-        <f>RIGHT(H105, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16734,11 +16704,11 @@
         <v>630</v>
       </c>
       <c r="O106" t="b">
-        <f>RIGHT(H106, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>632</v>
       </c>
@@ -16776,7 +16746,7 @@
         <v>636</v>
       </c>
       <c r="O107" t="b">
-        <f>RIGHT(H107, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16818,11 +16788,11 @@
         <v>642</v>
       </c>
       <c r="O108" t="b">
-        <f>RIGHT(H108, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>644</v>
       </c>
@@ -16860,11 +16830,11 @@
         <v>648</v>
       </c>
       <c r="O109" t="b">
-        <f>RIGHT(H109, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>651</v>
       </c>
@@ -16902,11 +16872,11 @@
         <v>655</v>
       </c>
       <c r="O110" t="b">
-        <f>RIGHT(H110, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>657</v>
       </c>
@@ -16944,7 +16914,7 @@
         <v>661</v>
       </c>
       <c r="O111" t="b">
-        <f>RIGHT(H111, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16986,7 +16956,7 @@
         <v>665</v>
       </c>
       <c r="O112" t="b">
-        <f>RIGHT(H112, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17028,7 +16998,7 @@
         <v>671</v>
       </c>
       <c r="O113" t="b">
-        <f>RIGHT(H113, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17070,7 +17040,7 @@
         <v>677</v>
       </c>
       <c r="O114" t="b">
-        <f>RIGHT(H114, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17112,7 +17082,7 @@
         <v>683</v>
       </c>
       <c r="O115" t="b">
-        <f>RIGHT(H115, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17154,11 +17124,11 @@
         <v>689</v>
       </c>
       <c r="O116" t="b">
-        <f>RIGHT(H116, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>424</v>
       </c>
@@ -17196,11 +17166,11 @@
         <v>693</v>
       </c>
       <c r="O117" t="b">
-        <f>RIGHT(H117, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>695</v>
       </c>
@@ -17238,7 +17208,7 @@
         <v>533</v>
       </c>
       <c r="O118" t="b">
-        <f>RIGHT(H118, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17280,11 +17250,11 @@
         <v>700</v>
       </c>
       <c r="O119" t="b">
-        <f>RIGHT(H119, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>702</v>
       </c>
@@ -17322,7 +17292,7 @@
         <v>706</v>
       </c>
       <c r="O120" t="b">
-        <f>RIGHT(H120, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17364,11 +17334,11 @@
         <v>712</v>
       </c>
       <c r="O121" t="b">
-        <f>RIGHT(H121, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>714</v>
       </c>
@@ -17406,11 +17376,11 @@
         <v>718</v>
       </c>
       <c r="O122" t="b">
-        <f>RIGHT(H122, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>720</v>
       </c>
@@ -17448,11 +17418,11 @@
         <v>724</v>
       </c>
       <c r="O123" t="b">
-        <f>RIGHT(H123, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>726</v>
       </c>
@@ -17490,11 +17460,11 @@
         <v>730</v>
       </c>
       <c r="O124" t="b">
-        <f>RIGHT(H124, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>732</v>
       </c>
@@ -17532,7 +17502,7 @@
         <v>736</v>
       </c>
       <c r="O125" t="b">
-        <f>RIGHT(H125, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17574,11 +17544,11 @@
         <v>742</v>
       </c>
       <c r="O126" t="b">
-        <f>RIGHT(H126, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>744</v>
       </c>
@@ -17616,11 +17586,11 @@
         <v>748</v>
       </c>
       <c r="O127" t="b">
-        <f>RIGHT(H127, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>750</v>
       </c>
@@ -17658,7 +17628,7 @@
         <v>754</v>
       </c>
       <c r="O128" t="b">
-        <f>RIGHT(H128, 1) = "?"</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -17700,11 +17670,11 @@
         <v>760</v>
       </c>
       <c r="O129" t="b">
-        <f>RIGHT(H129, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>762</v>
       </c>
@@ -17742,7 +17712,7 @@
         <v>766</v>
       </c>
       <c r="O130" t="b">
-        <f>RIGHT(H130, 1) = "?"</f>
+        <f t="shared" ref="O130:O193" si="2">RIGHT(H130, 1) = "?"</f>
         <v>0</v>
       </c>
     </row>
@@ -17784,11 +17754,11 @@
         <v>773</v>
       </c>
       <c r="O131" t="b">
-        <f>RIGHT(H131, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>775</v>
       </c>
@@ -17826,7 +17796,7 @@
         <v>779</v>
       </c>
       <c r="O132" t="b">
-        <f>RIGHT(H132, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -17868,7 +17838,7 @@
         <v>785</v>
       </c>
       <c r="O133" t="b">
-        <f>RIGHT(H133, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -17910,7 +17880,7 @@
         <v>791</v>
       </c>
       <c r="O134" t="b">
-        <f>RIGHT(H134, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -17952,11 +17922,11 @@
         <v>795</v>
       </c>
       <c r="O135" t="b">
-        <f>RIGHT(H135, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>797</v>
       </c>
@@ -17994,7 +17964,7 @@
         <v>802</v>
       </c>
       <c r="O136" t="b">
-        <f>RIGHT(H136, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18036,7 +18006,7 @@
         <v>808</v>
       </c>
       <c r="O137" t="b">
-        <f>RIGHT(H137, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18078,11 +18048,11 @@
         <v>814</v>
       </c>
       <c r="O138" t="b">
-        <f>RIGHT(H138, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
         <v>816</v>
       </c>
@@ -18120,11 +18090,11 @@
         <v>820</v>
       </c>
       <c r="O139" t="b">
-        <f>RIGHT(H139, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>720</v>
       </c>
@@ -18162,11 +18132,11 @@
         <v>824</v>
       </c>
       <c r="O140" t="b">
-        <f>RIGHT(H140, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
         <v>826</v>
       </c>
@@ -18204,11 +18174,11 @@
         <v>830</v>
       </c>
       <c r="O141" t="b">
-        <f>RIGHT(H141, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>832</v>
       </c>
@@ -18246,7 +18216,7 @@
         <v>836</v>
       </c>
       <c r="O142" t="b">
-        <f>RIGHT(H142, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18288,7 +18258,7 @@
         <v>842</v>
       </c>
       <c r="O143" t="b">
-        <f>RIGHT(H143, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18330,11 +18300,11 @@
         <v>848</v>
       </c>
       <c r="O144" t="b">
-        <f>RIGHT(H144, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>850</v>
       </c>
@@ -18372,7 +18342,7 @@
         <v>854</v>
       </c>
       <c r="O145" t="b">
-        <f>RIGHT(H145, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18414,7 +18384,7 @@
         <v>860</v>
       </c>
       <c r="O146" t="b">
-        <f>RIGHT(H146, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18456,7 +18426,7 @@
         <v>866</v>
       </c>
       <c r="O147" t="b">
-        <f>RIGHT(H147, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18498,7 +18468,7 @@
         <v>872</v>
       </c>
       <c r="O148" t="b">
-        <f>RIGHT(H148, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18540,11 +18510,11 @@
         <v>878</v>
       </c>
       <c r="O149" t="b">
-        <f>RIGHT(H149, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
         <v>880</v>
       </c>
@@ -18582,7 +18552,7 @@
         <v>884</v>
       </c>
       <c r="O150" t="b">
-        <f>RIGHT(H150, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18624,11 +18594,11 @@
         <v>890</v>
       </c>
       <c r="O151" t="b">
-        <f>RIGHT(H151, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>892</v>
       </c>
@@ -18666,11 +18636,11 @@
         <v>896</v>
       </c>
       <c r="O152" t="b">
-        <f>RIGHT(H152, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>898</v>
       </c>
@@ -18708,11 +18678,11 @@
         <v>902</v>
       </c>
       <c r="O153" t="b">
-        <f>RIGHT(H153, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
         <v>904</v>
       </c>
@@ -18750,7 +18720,7 @@
         <v>908</v>
       </c>
       <c r="O154" t="b">
-        <f>RIGHT(H154, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18792,11 +18762,11 @@
         <v>914</v>
       </c>
       <c r="O155" t="b">
-        <f>RIGHT(H155, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
         <v>916</v>
       </c>
@@ -18834,11 +18804,11 @@
         <v>920</v>
       </c>
       <c r="O156" t="b">
-        <f>RIGHT(H156, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>922</v>
       </c>
@@ -18876,7 +18846,7 @@
         <v>926</v>
       </c>
       <c r="O157" t="b">
-        <f>RIGHT(H157, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18918,7 +18888,7 @@
         <v>932</v>
       </c>
       <c r="O158" t="b">
-        <f>RIGHT(H158, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18960,11 +18930,11 @@
         <v>938</v>
       </c>
       <c r="O159" t="b">
-        <f>RIGHT(H159, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>940</v>
       </c>
@@ -19002,7 +18972,7 @@
         <v>944</v>
       </c>
       <c r="O160" t="b">
-        <f>RIGHT(H160, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19044,7 +19014,7 @@
         <v>950</v>
       </c>
       <c r="O161" t="b">
-        <f>RIGHT(H161, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19086,7 +19056,7 @@
         <v>956</v>
       </c>
       <c r="O162" t="b">
-        <f>RIGHT(H162, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19128,11 +19098,11 @@
         <v>962</v>
       </c>
       <c r="O163" t="b">
-        <f>RIGHT(H163, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
         <v>964</v>
       </c>
@@ -19170,7 +19140,7 @@
         <v>968</v>
       </c>
       <c r="O164" t="b">
-        <f>RIGHT(H164, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19212,7 +19182,7 @@
         <v>974</v>
       </c>
       <c r="O165" t="b">
-        <f>RIGHT(H165, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19254,11 +19224,11 @@
         <v>980</v>
       </c>
       <c r="O166" t="b">
-        <f>RIGHT(H166, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>982</v>
       </c>
@@ -19296,7 +19266,7 @@
         <v>986</v>
       </c>
       <c r="O167" t="b">
-        <f>RIGHT(H167, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19338,7 +19308,7 @@
         <v>992</v>
       </c>
       <c r="O168" t="b">
-        <f>RIGHT(H168, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19380,7 +19350,7 @@
         <v>998</v>
       </c>
       <c r="O169" t="b">
-        <f>RIGHT(H169, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19422,11 +19392,11 @@
         <v>1004</v>
       </c>
       <c r="O170" t="b">
-        <f>RIGHT(H170, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>1006</v>
       </c>
@@ -19464,11 +19434,11 @@
         <v>1010</v>
       </c>
       <c r="O171" t="b">
-        <f>RIGHT(H171, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>1012</v>
       </c>
@@ -19506,11 +19476,11 @@
         <v>1016</v>
       </c>
       <c r="O172" t="b">
-        <f>RIGHT(H172, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>1018</v>
       </c>
@@ -19548,7 +19518,7 @@
         <v>1022</v>
       </c>
       <c r="O173" t="b">
-        <f>RIGHT(H173, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19590,7 +19560,7 @@
         <v>1028</v>
       </c>
       <c r="O174" t="b">
-        <f>RIGHT(H174, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19632,7 +19602,7 @@
         <v>1032</v>
       </c>
       <c r="O175" t="b">
-        <f>RIGHT(H175, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19674,11 +19644,11 @@
         <v>1038</v>
       </c>
       <c r="O176" t="b">
-        <f>RIGHT(H176, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>1040</v>
       </c>
@@ -19716,7 +19686,7 @@
         <v>1044</v>
       </c>
       <c r="O177" t="b">
-        <f>RIGHT(H177, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19758,7 +19728,7 @@
         <v>1050</v>
       </c>
       <c r="O178" t="b">
-        <f>RIGHT(H178, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19800,11 +19770,11 @@
         <v>1056</v>
       </c>
       <c r="O179" t="b">
-        <f>RIGHT(H179, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>1058</v>
       </c>
@@ -19842,11 +19812,11 @@
         <v>1062</v>
       </c>
       <c r="O180" t="b">
-        <f>RIGHT(H180, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>1064</v>
       </c>
@@ -19884,7 +19854,7 @@
         <v>1068</v>
       </c>
       <c r="O181" t="b">
-        <f>RIGHT(H181, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19926,7 +19896,7 @@
         <v>1074</v>
       </c>
       <c r="O182" t="b">
-        <f>RIGHT(H182, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19968,7 +19938,7 @@
         <v>1079</v>
       </c>
       <c r="O183" t="b">
-        <f>RIGHT(H183, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20010,11 +19980,11 @@
         <v>1085</v>
       </c>
       <c r="O184" t="b">
-        <f>RIGHT(H184, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>1087</v>
       </c>
@@ -20052,7 +20022,7 @@
         <v>1091</v>
       </c>
       <c r="O185" t="b">
-        <f>RIGHT(H185, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20094,11 +20064,11 @@
         <v>1097</v>
       </c>
       <c r="O186" t="b">
-        <f>RIGHT(H186, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>1099</v>
       </c>
@@ -20136,11 +20106,11 @@
         <v>1103</v>
       </c>
       <c r="O187" t="b">
-        <f>RIGHT(H187, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>1105</v>
       </c>
@@ -20178,11 +20148,11 @@
         <v>1109</v>
       </c>
       <c r="O188" t="b">
-        <f>RIGHT(H188, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>1111</v>
       </c>
@@ -20220,11 +20190,11 @@
         <v>1115</v>
       </c>
       <c r="O189" t="b">
-        <f>RIGHT(H189, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>1117</v>
       </c>
@@ -20262,11 +20232,11 @@
         <v>1121</v>
       </c>
       <c r="O190" t="b">
-        <f>RIGHT(H190, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>1123</v>
       </c>
@@ -20304,11 +20274,11 @@
         <v>1127</v>
       </c>
       <c r="O191" t="b">
-        <f>RIGHT(H191, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>1129</v>
       </c>
@@ -20346,7 +20316,7 @@
         <v>1133</v>
       </c>
       <c r="O192" t="b">
-        <f>RIGHT(H192, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20388,7 +20358,7 @@
         <v>1139</v>
       </c>
       <c r="O193" t="b">
-        <f>RIGHT(H193, 1) = "?"</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20430,7 +20400,7 @@
         <v>1145</v>
       </c>
       <c r="O194" t="b">
-        <f>RIGHT(H194, 1) = "?"</f>
+        <f t="shared" ref="O194:O257" si="3">RIGHT(H194, 1) = "?"</f>
         <v>0</v>
       </c>
     </row>
@@ -20472,11 +20442,11 @@
         <v>1151</v>
       </c>
       <c r="O195" t="b">
-        <f>RIGHT(H195, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>1153</v>
       </c>
@@ -20514,11 +20484,11 @@
         <v>1157</v>
       </c>
       <c r="O196" t="b">
-        <f>RIGHT(H196, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>1159</v>
       </c>
@@ -20556,11 +20526,11 @@
         <v>1163</v>
       </c>
       <c r="O197" t="b">
-        <f>RIGHT(H197, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>1165</v>
       </c>
@@ -20598,11 +20568,11 @@
         <v>1169</v>
       </c>
       <c r="O198" t="b">
-        <f>RIGHT(H198, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>1171</v>
       </c>
@@ -20640,7 +20610,7 @@
         <v>1175</v>
       </c>
       <c r="O199" t="b">
-        <f>RIGHT(H199, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -20682,7 +20652,7 @@
         <v>1181</v>
       </c>
       <c r="O200" t="b">
-        <f>RIGHT(H200, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -20724,11 +20694,11 @@
         <v>1187</v>
       </c>
       <c r="O201" t="b">
-        <f>RIGHT(H201, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>1189</v>
       </c>
@@ -20766,7 +20736,7 @@
         <v>1193</v>
       </c>
       <c r="O202" t="b">
-        <f>RIGHT(H202, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -20808,11 +20778,11 @@
         <v>1199</v>
       </c>
       <c r="O203" t="b">
-        <f>RIGHT(H203, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>1201</v>
       </c>
@@ -20850,7 +20820,7 @@
         <v>1205</v>
       </c>
       <c r="O204" t="b">
-        <f>RIGHT(H204, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -20892,7 +20862,7 @@
         <v>1211</v>
       </c>
       <c r="O205" t="b">
-        <f>RIGHT(H205, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -20934,7 +20904,7 @@
         <v>1217</v>
       </c>
       <c r="O206" t="b">
-        <f>RIGHT(H206, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -20976,7 +20946,7 @@
         <v>1223</v>
       </c>
       <c r="O207" t="b">
-        <f>RIGHT(H207, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21018,11 +20988,11 @@
         <v>1229</v>
       </c>
       <c r="O208" t="b">
-        <f>RIGHT(H208, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>1231</v>
       </c>
@@ -21060,11 +21030,11 @@
         <v>1235</v>
       </c>
       <c r="O209" t="b">
-        <f>RIGHT(H209, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>1237</v>
       </c>
@@ -21102,7 +21072,7 @@
         <v>1241</v>
       </c>
       <c r="O210" t="b">
-        <f>RIGHT(H210, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21144,11 +21114,11 @@
         <v>1245</v>
       </c>
       <c r="O211" t="b">
-        <f>RIGHT(H211, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
         <v>1247</v>
       </c>
@@ -21186,7 +21156,7 @@
         <v>1251</v>
       </c>
       <c r="O212" t="b">
-        <f>RIGHT(H212, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21228,7 +21198,7 @@
         <v>1261</v>
       </c>
       <c r="O213" t="b">
-        <f>RIGHT(H213, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21270,7 +21240,7 @@
         <v>1267</v>
       </c>
       <c r="O214" t="b">
-        <f>RIGHT(H214, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21312,7 +21282,7 @@
         <v>1273</v>
       </c>
       <c r="O215" t="b">
-        <f>RIGHT(H215, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21354,7 +21324,7 @@
         <v>1257</v>
       </c>
       <c r="O216" t="b">
-        <f>RIGHT(H216, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21396,11 +21366,11 @@
         <v>1282</v>
       </c>
       <c r="O217" t="b">
-        <f>RIGHT(H217, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>1284</v>
       </c>
@@ -21438,7 +21408,7 @@
         <v>1288</v>
       </c>
       <c r="O218" t="b">
-        <f>RIGHT(H218, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21480,11 +21450,11 @@
         <v>1294</v>
       </c>
       <c r="O219" t="b">
-        <f>RIGHT(H219, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>1296</v>
       </c>
@@ -21522,11 +21492,11 @@
         <v>1300</v>
       </c>
       <c r="O220" t="b">
-        <f>RIGHT(H220, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>1302</v>
       </c>
@@ -21564,7 +21534,7 @@
         <v>1306</v>
       </c>
       <c r="O221" t="b">
-        <f>RIGHT(H221, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21606,7 +21576,7 @@
         <v>1312</v>
       </c>
       <c r="O222" t="b">
-        <f>RIGHT(H222, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21648,11 +21618,11 @@
         <v>1318</v>
       </c>
       <c r="O223" t="b">
-        <f>RIGHT(H223, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>1320</v>
       </c>
@@ -21690,7 +21660,7 @@
         <v>1324</v>
       </c>
       <c r="O224" t="b">
-        <f>RIGHT(H224, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21732,11 +21702,11 @@
         <v>1330</v>
       </c>
       <c r="O225" t="b">
-        <f>RIGHT(H225, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>1334</v>
       </c>
@@ -21774,7 +21744,7 @@
         <v>1338</v>
       </c>
       <c r="O226" t="b">
-        <f>RIGHT(H226, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21816,7 +21786,7 @@
         <v>1344</v>
       </c>
       <c r="O227" t="b">
-        <f>RIGHT(H227, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21858,7 +21828,7 @@
         <v>1254</v>
       </c>
       <c r="O228" t="b">
-        <f>RIGHT(H228, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -21900,11 +21870,11 @@
         <v>1353</v>
       </c>
       <c r="O229" t="b">
-        <f>RIGHT(H229, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>1355</v>
       </c>
@@ -21942,11 +21912,11 @@
         <v>1359</v>
       </c>
       <c r="O230" t="b">
-        <f>RIGHT(H230, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>1361</v>
       </c>
@@ -21984,7 +21954,7 @@
         <v>1365</v>
       </c>
       <c r="O231" t="b">
-        <f>RIGHT(H231, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -22026,11 +21996,11 @@
         <v>1371</v>
       </c>
       <c r="O232" t="b">
-        <f>RIGHT(H232, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>1373</v>
       </c>
@@ -22068,7 +22038,7 @@
         <v>1377</v>
       </c>
       <c r="O233" t="b">
-        <f>RIGHT(H233, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -22110,7 +22080,7 @@
         <v>1383</v>
       </c>
       <c r="O234" t="b">
-        <f>RIGHT(H234, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -22152,11 +22122,11 @@
         <v>1389</v>
       </c>
       <c r="O235" t="b">
-        <f>RIGHT(H235, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
         <v>1391</v>
       </c>
@@ -22194,7 +22164,7 @@
         <v>1395</v>
       </c>
       <c r="O236" t="b">
-        <f>RIGHT(H236, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -22236,7 +22206,7 @@
         <v>1401</v>
       </c>
       <c r="O237" t="b">
-        <f>RIGHT(H237, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -22278,11 +22248,11 @@
         <v>1407</v>
       </c>
       <c r="O238" t="b">
-        <f>RIGHT(H238, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>1409</v>
       </c>
@@ -22320,7 +22290,7 @@
         <v>1413</v>
       </c>
       <c r="O239" t="b">
-        <f>RIGHT(H239, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -22362,7 +22332,7 @@
         <v>1419</v>
       </c>
       <c r="O240" t="b">
-        <f>RIGHT(H240, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -22404,7 +22374,7 @@
         <v>1425</v>
       </c>
       <c r="O241" t="b">
-        <f>RIGHT(H241, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -22446,11 +22416,11 @@
         <v>1431</v>
       </c>
       <c r="O242" t="b">
-        <f>RIGHT(H242, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>1433</v>
       </c>
@@ -22488,11 +22458,11 @@
         <v>1437</v>
       </c>
       <c r="O243" t="b">
-        <f>RIGHT(H243, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>1439</v>
       </c>
@@ -22530,11 +22500,11 @@
         <v>1441</v>
       </c>
       <c r="O244" t="b">
-        <f>RIGHT(H244, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
         <v>1443</v>
       </c>
@@ -22572,7 +22542,7 @@
         <v>1447</v>
       </c>
       <c r="O245" t="b">
-        <f>RIGHT(H245, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -22614,7 +22584,7 @@
         <v>1453</v>
       </c>
       <c r="O246" t="b">
-        <f>RIGHT(H246, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -22656,7 +22626,7 @@
         <v>1459</v>
       </c>
       <c r="O247" t="b">
-        <f>RIGHT(H247, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -22698,11 +22668,11 @@
         <v>1465</v>
       </c>
       <c r="O248" t="b">
-        <f>RIGHT(H248, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>1467</v>
       </c>
@@ -22740,11 +22710,11 @@
         <v>1471</v>
       </c>
       <c r="O249" t="b">
-        <f>RIGHT(H249, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>1473</v>
       </c>
@@ -22782,11 +22752,11 @@
         <v>1477</v>
       </c>
       <c r="O250" t="b">
-        <f>RIGHT(H250, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>1479</v>
       </c>
@@ -22824,7 +22794,7 @@
         <v>1483</v>
       </c>
       <c r="O251" t="b">
-        <f>RIGHT(H251, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -22866,7 +22836,7 @@
         <v>1489</v>
       </c>
       <c r="O252" t="b">
-        <f>RIGHT(H252, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -22908,7 +22878,7 @@
         <v>1495</v>
       </c>
       <c r="O253" t="b">
-        <f>RIGHT(H253, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -22950,11 +22920,11 @@
         <v>1501</v>
       </c>
       <c r="O254" t="b">
-        <f>RIGHT(H254, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>1503</v>
       </c>
@@ -22992,7 +22962,7 @@
         <v>1507</v>
       </c>
       <c r="O255" t="b">
-        <f>RIGHT(H255, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -23034,7 +23004,7 @@
         <v>1511</v>
       </c>
       <c r="O256" t="b">
-        <f>RIGHT(H256, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -23076,7 +23046,7 @@
         <v>1517</v>
       </c>
       <c r="O257" t="b">
-        <f>RIGHT(H257, 1) = "?"</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -23118,7 +23088,7 @@
         <v>1523</v>
       </c>
       <c r="O258" t="b">
-        <f>RIGHT(H258, 1) = "?"</f>
+        <f t="shared" ref="O258:O321" si="4">RIGHT(H258, 1) = "?"</f>
         <v>0</v>
       </c>
     </row>
@@ -23160,7 +23130,7 @@
         <v>1529</v>
       </c>
       <c r="O259" t="b">
-        <f>RIGHT(H259, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -23202,7 +23172,7 @@
         <v>1535</v>
       </c>
       <c r="O260" t="b">
-        <f>RIGHT(H260, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -23244,11 +23214,11 @@
         <v>1541</v>
       </c>
       <c r="O261" t="b">
-        <f>RIGHT(H261, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
         <v>1543</v>
       </c>
@@ -23286,11 +23256,11 @@
         <v>1547</v>
       </c>
       <c r="O262" t="b">
-        <f>RIGHT(H262, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
         <v>1549</v>
       </c>
@@ -23328,7 +23298,7 @@
         <v>1553</v>
       </c>
       <c r="O263" t="b">
-        <f>RIGHT(H263, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -23370,7 +23340,7 @@
         <v>1559</v>
       </c>
       <c r="O264" t="b">
-        <f>RIGHT(H264, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -23412,7 +23382,7 @@
         <v>1565</v>
       </c>
       <c r="O265" t="b">
-        <f>RIGHT(H265, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -23454,7 +23424,7 @@
         <v>1571</v>
       </c>
       <c r="O266" t="b">
-        <f>RIGHT(H266, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -23496,11 +23466,11 @@
         <v>1431</v>
       </c>
       <c r="O267" t="b">
-        <f>RIGHT(H267, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>1576</v>
       </c>
@@ -23538,7 +23508,7 @@
         <v>1580</v>
       </c>
       <c r="O268" t="b">
-        <f>RIGHT(H268, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -23580,11 +23550,11 @@
         <v>1586</v>
       </c>
       <c r="O269" t="b">
-        <f>RIGHT(H269, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" s="5" t="s">
         <v>1588</v>
       </c>
@@ -23622,11 +23592,11 @@
         <v>1592</v>
       </c>
       <c r="O270" t="b">
-        <f>RIGHT(H270, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
         <v>1594</v>
       </c>
@@ -23664,11 +23634,11 @@
         <v>1598</v>
       </c>
       <c r="O271" t="b">
-        <f>RIGHT(H271, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
         <v>1600</v>
       </c>
@@ -23706,7 +23676,7 @@
         <v>1604</v>
       </c>
       <c r="O272" t="b">
-        <f>RIGHT(H272, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -23748,11 +23718,11 @@
         <v>1610</v>
       </c>
       <c r="O273" t="b">
-        <f>RIGHT(H273, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="5" t="s">
         <v>1612</v>
       </c>
@@ -23790,7 +23760,7 @@
         <v>1616</v>
       </c>
       <c r="O274" t="b">
-        <f>RIGHT(H274, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -23832,11 +23802,11 @@
         <v>1622</v>
       </c>
       <c r="O275" t="b">
-        <f>RIGHT(H275, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
         <v>1624</v>
       </c>
@@ -23874,11 +23844,11 @@
         <v>1628</v>
       </c>
       <c r="O276" t="b">
-        <f>RIGHT(H276, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>1630</v>
       </c>
@@ -23916,11 +23886,11 @@
         <v>1634</v>
       </c>
       <c r="O277" t="b">
-        <f>RIGHT(H277, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>1636</v>
       </c>
@@ -23958,11 +23928,11 @@
         <v>1640</v>
       </c>
       <c r="O278" t="b">
-        <f>RIGHT(H278, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>1642</v>
       </c>
@@ -24000,11 +23970,11 @@
         <v>1646</v>
       </c>
       <c r="O279" t="b">
-        <f>RIGHT(H279, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
         <v>1648</v>
       </c>
@@ -24042,11 +24012,11 @@
         <v>1652</v>
       </c>
       <c r="O280" t="b">
-        <f>RIGHT(H280, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
         <v>1654</v>
       </c>
@@ -24084,7 +24054,7 @@
         <v>1658</v>
       </c>
       <c r="O281" t="b">
-        <f>RIGHT(H281, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -24126,7 +24096,7 @@
         <v>1664</v>
       </c>
       <c r="O282" t="b">
-        <f>RIGHT(H282, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -24168,7 +24138,7 @@
         <v>1670</v>
       </c>
       <c r="O283" t="b">
-        <f>RIGHT(H283, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -24210,11 +24180,11 @@
         <v>1676</v>
       </c>
       <c r="O284" t="b">
-        <f>RIGHT(H284, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
         <v>1678</v>
       </c>
@@ -24252,7 +24222,7 @@
         <v>1682</v>
       </c>
       <c r="O285" t="b">
-        <f>RIGHT(H285, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -24294,7 +24264,7 @@
         <v>1688</v>
       </c>
       <c r="O286" t="b">
-        <f>RIGHT(H286, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -24336,7 +24306,7 @@
         <v>1694</v>
       </c>
       <c r="O287" t="b">
-        <f>RIGHT(H287, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -24378,11 +24348,11 @@
         <v>1700</v>
       </c>
       <c r="O288" t="b">
-        <f>RIGHT(H288, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
         <v>1702</v>
       </c>
@@ -24420,7 +24390,7 @@
         <v>1706</v>
       </c>
       <c r="O289" t="b">
-        <f>RIGHT(H289, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -24462,7 +24432,7 @@
         <v>1712</v>
       </c>
       <c r="O290" t="b">
-        <f>RIGHT(H290, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -24504,7 +24474,7 @@
         <v>1718</v>
       </c>
       <c r="O291" t="b">
-        <f>RIGHT(H291, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -24546,7 +24516,7 @@
         <v>1721</v>
       </c>
       <c r="O292" t="b">
-        <f>RIGHT(H292, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -24588,11 +24558,11 @@
         <v>1727</v>
       </c>
       <c r="O293" t="b">
-        <f>RIGHT(H293, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
         <v>1729</v>
       </c>
@@ -24630,7 +24600,7 @@
         <v>1733</v>
       </c>
       <c r="O294" t="b">
-        <f>RIGHT(H294, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -24672,7 +24642,7 @@
         <v>1738</v>
       </c>
       <c r="O295" t="b">
-        <f>RIGHT(H295, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -24714,11 +24684,11 @@
         <v>1744</v>
       </c>
       <c r="O296" t="b">
-        <f>RIGHT(H296, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
         <v>1746</v>
       </c>
@@ -24756,7 +24726,7 @@
         <v>1750</v>
       </c>
       <c r="O297" t="b">
-        <f>RIGHT(H297, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -24798,7 +24768,7 @@
         <v>1756</v>
       </c>
       <c r="O298" t="b">
-        <f>RIGHT(H298, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -24840,11 +24810,11 @@
         <v>1762</v>
       </c>
       <c r="O299" t="b">
-        <f>RIGHT(H299, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
         <v>1764</v>
       </c>
@@ -24882,7 +24852,7 @@
         <v>1768</v>
       </c>
       <c r="O300" t="b">
-        <f>RIGHT(H300, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -24924,11 +24894,11 @@
         <v>1774</v>
       </c>
       <c r="O301" t="b">
-        <f>RIGHT(H301, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
         <v>1776</v>
       </c>
@@ -24966,11 +24936,11 @@
         <v>1780</v>
       </c>
       <c r="O302" t="b">
-        <f>RIGHT(H302, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
         <v>1782</v>
       </c>
@@ -25008,7 +24978,7 @@
         <v>1786</v>
       </c>
       <c r="O303" t="b">
-        <f>RIGHT(H303, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -25050,7 +25020,7 @@
         <v>1792</v>
       </c>
       <c r="O304" t="b">
-        <f>RIGHT(H304, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -25092,11 +25062,11 @@
         <v>1798</v>
       </c>
       <c r="O305" t="b">
-        <f>RIGHT(H305, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" s="5" t="s">
         <v>1800</v>
       </c>
@@ -25134,7 +25104,7 @@
         <v>1804</v>
       </c>
       <c r="O306" t="b">
-        <f>RIGHT(H306, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -25176,7 +25146,7 @@
         <v>1810</v>
       </c>
       <c r="O307" t="b">
-        <f>RIGHT(H307, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -25218,7 +25188,7 @@
         <v>1816</v>
       </c>
       <c r="O308" t="b">
-        <f>RIGHT(H308, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -25260,11 +25230,11 @@
         <v>1822</v>
       </c>
       <c r="O309" t="b">
-        <f>RIGHT(H309, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" s="5" t="s">
         <v>1824</v>
       </c>
@@ -25302,11 +25272,11 @@
         <v>500</v>
       </c>
       <c r="O310" t="b">
-        <f>RIGHT(H310, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" s="5" t="s">
         <v>1829</v>
       </c>
@@ -25344,7 +25314,7 @@
         <v>1833</v>
       </c>
       <c r="O311" t="b">
-        <f>RIGHT(H311, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -25386,7 +25356,7 @@
         <v>1839</v>
       </c>
       <c r="O312" t="b">
-        <f>RIGHT(H312, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -25428,7 +25398,7 @@
         <v>14</v>
       </c>
       <c r="O313" t="b">
-        <f>RIGHT(H313, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -25470,11 +25440,11 @@
         <v>1851</v>
       </c>
       <c r="O314" t="b">
-        <f>RIGHT(H314, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
         <v>1853</v>
       </c>
@@ -25512,7 +25482,7 @@
         <v>1857</v>
       </c>
       <c r="O315" t="b">
-        <f>RIGHT(H315, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -25554,11 +25524,11 @@
         <v>1863</v>
       </c>
       <c r="O316" t="b">
-        <f>RIGHT(H316, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
         <v>1865</v>
       </c>
@@ -25596,7 +25566,7 @@
         <v>1869</v>
       </c>
       <c r="O317" t="b">
-        <f>RIGHT(H317, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -25638,11 +25608,11 @@
         <v>1875</v>
       </c>
       <c r="O318" t="b">
-        <f>RIGHT(H318, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" s="5" t="s">
         <v>1877</v>
       </c>
@@ -25680,7 +25650,7 @@
         <v>1881</v>
       </c>
       <c r="O319" t="b">
-        <f>RIGHT(H319, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -25722,11 +25692,11 @@
         <v>1887</v>
       </c>
       <c r="O320" t="b">
-        <f>RIGHT(H320, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" s="5" t="s">
         <v>1889</v>
       </c>
@@ -25764,11 +25734,11 @@
         <v>1893</v>
       </c>
       <c r="O321" t="b">
-        <f>RIGHT(H321, 1) = "?"</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="5" t="s">
         <v>1895</v>
       </c>
@@ -25806,7 +25776,7 @@
         <v>1899</v>
       </c>
       <c r="O322" t="b">
-        <f>RIGHT(H322, 1) = "?"</f>
+        <f t="shared" ref="O322:O385" si="5">RIGHT(H322, 1) = "?"</f>
         <v>0</v>
       </c>
     </row>
@@ -25848,11 +25818,11 @@
         <v>1905</v>
       </c>
       <c r="O323" t="b">
-        <f>RIGHT(H323, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" s="5" t="s">
         <v>1907</v>
       </c>
@@ -25890,11 +25860,11 @@
         <v>1911</v>
       </c>
       <c r="O324" t="b">
-        <f>RIGHT(H324, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" s="5" t="s">
         <v>1913</v>
       </c>
@@ -25932,7 +25902,7 @@
         <v>1917</v>
       </c>
       <c r="O325" t="b">
-        <f>RIGHT(H325, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -25974,7 +25944,7 @@
         <v>1419</v>
       </c>
       <c r="O326" t="b">
-        <f>RIGHT(H326, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -26016,7 +25986,7 @@
         <v>1926</v>
       </c>
       <c r="O327" t="b">
-        <f>RIGHT(H327, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -26058,7 +26028,7 @@
         <v>1932</v>
       </c>
       <c r="O328" t="b">
-        <f>RIGHT(H328, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -26100,7 +26070,7 @@
         <v>1938</v>
       </c>
       <c r="O329" t="b">
-        <f>RIGHT(H329, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -26142,11 +26112,11 @@
         <v>1944</v>
       </c>
       <c r="O330" t="b">
-        <f>RIGHT(H330, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" s="5" t="s">
         <v>1946</v>
       </c>
@@ -26184,7 +26154,7 @@
         <v>1950</v>
       </c>
       <c r="O331" t="b">
-        <f>RIGHT(H331, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -26226,11 +26196,11 @@
         <v>1956</v>
       </c>
       <c r="O332" t="b">
-        <f>RIGHT(H332, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" s="5" t="s">
         <v>1958</v>
       </c>
@@ -26268,7 +26238,7 @@
         <v>1962</v>
       </c>
       <c r="O333" t="b">
-        <f>RIGHT(H333, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -26310,7 +26280,7 @@
         <v>1968</v>
       </c>
       <c r="O334" t="b">
-        <f>RIGHT(H334, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -26352,11 +26322,11 @@
         <v>1974</v>
       </c>
       <c r="O335" t="b">
-        <f>RIGHT(H335, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" s="5" t="s">
         <v>1976</v>
       </c>
@@ -26394,11 +26364,11 @@
         <v>1980</v>
       </c>
       <c r="O336" t="b">
-        <f>RIGHT(H336, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" s="5" t="s">
         <v>1982</v>
       </c>
@@ -26436,7 +26406,7 @@
         <v>1986</v>
       </c>
       <c r="O337" t="b">
-        <f>RIGHT(H337, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -26478,11 +26448,11 @@
         <v>1992</v>
       </c>
       <c r="O338" t="b">
-        <f>RIGHT(H338, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" s="5" t="s">
         <v>1994</v>
       </c>
@@ -26520,11 +26490,11 @@
         <v>1998</v>
       </c>
       <c r="O339" t="b">
-        <f>RIGHT(H339, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" s="5" t="s">
         <v>2000</v>
       </c>
@@ -26562,7 +26532,7 @@
         <v>2004</v>
       </c>
       <c r="O340" t="b">
-        <f>RIGHT(H340, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -26604,7 +26574,7 @@
         <v>2010</v>
       </c>
       <c r="O341" t="b">
-        <f>RIGHT(H341, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -26646,7 +26616,7 @@
         <v>2016</v>
       </c>
       <c r="O342" t="b">
-        <f>RIGHT(H342, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -26688,7 +26658,7 @@
         <v>2022</v>
       </c>
       <c r="O343" t="b">
-        <f>RIGHT(H343, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -26730,7 +26700,7 @@
         <v>2028</v>
       </c>
       <c r="O344" t="b">
-        <f>RIGHT(H344, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -26772,7 +26742,7 @@
         <v>2034</v>
       </c>
       <c r="O345" t="b">
-        <f>RIGHT(H345, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -26814,7 +26784,7 @@
         <v>2040</v>
       </c>
       <c r="O346" t="b">
-        <f>RIGHT(H346, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -26856,11 +26826,11 @@
         <v>2046</v>
       </c>
       <c r="O347" t="b">
-        <f>RIGHT(H347, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" s="5" t="s">
         <v>2048</v>
       </c>
@@ -26898,7 +26868,7 @@
         <v>2052</v>
       </c>
       <c r="O348" t="b">
-        <f>RIGHT(H348, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -26940,11 +26910,11 @@
         <v>2058</v>
       </c>
       <c r="O349" t="b">
-        <f>RIGHT(H349, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" s="5" t="s">
         <v>2060</v>
       </c>
@@ -26982,11 +26952,11 @@
         <v>2064</v>
       </c>
       <c r="O350" t="b">
-        <f>RIGHT(H350, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" s="5" t="s">
         <v>2066</v>
       </c>
@@ -27024,11 +26994,11 @@
         <v>2070</v>
       </c>
       <c r="O351" t="b">
-        <f>RIGHT(H351, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" s="5" t="s">
         <v>2072</v>
       </c>
@@ -27066,11 +27036,11 @@
         <v>2076</v>
       </c>
       <c r="O352" t="b">
-        <f>RIGHT(H352, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" s="5" t="s">
         <v>2078</v>
       </c>
@@ -27108,11 +27078,11 @@
         <v>2082</v>
       </c>
       <c r="O353" t="b">
-        <f>RIGHT(H353, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A354" s="5" t="s">
         <v>2084</v>
       </c>
@@ -27150,7 +27120,7 @@
         <v>2088</v>
       </c>
       <c r="O354" t="b">
-        <f>RIGHT(H354, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27192,7 +27162,7 @@
         <v>2094</v>
       </c>
       <c r="O355" t="b">
-        <f>RIGHT(H355, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27234,7 +27204,7 @@
         <v>2098</v>
       </c>
       <c r="O356" t="b">
-        <f>RIGHT(H356, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27276,11 +27246,11 @@
         <v>2102</v>
       </c>
       <c r="O357" t="b">
-        <f>RIGHT(H357, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" s="5" t="s">
         <v>2104</v>
       </c>
@@ -27318,11 +27288,11 @@
         <v>2108</v>
       </c>
       <c r="O358" t="b">
-        <f>RIGHT(H358, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="5" t="s">
         <v>2110</v>
       </c>
@@ -27360,7 +27330,7 @@
         <v>2114</v>
       </c>
       <c r="O359" t="b">
-        <f>RIGHT(H359, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27402,7 +27372,7 @@
         <v>2120</v>
       </c>
       <c r="O360" t="b">
-        <f>RIGHT(H360, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27444,11 +27414,11 @@
         <v>2126</v>
       </c>
       <c r="O361" t="b">
-        <f>RIGHT(H361, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A362" s="5" t="s">
         <v>2128</v>
       </c>
@@ -27486,11 +27456,11 @@
         <v>2132</v>
       </c>
       <c r="O362" t="b">
-        <f>RIGHT(H362, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A363" s="5" t="s">
         <v>2134</v>
       </c>
@@ -27528,11 +27498,11 @@
         <v>2138</v>
       </c>
       <c r="O363" t="b">
-        <f>RIGHT(H363, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" s="5" t="s">
         <v>2140</v>
       </c>
@@ -27570,7 +27540,7 @@
         <v>2144</v>
       </c>
       <c r="O364" t="b">
-        <f>RIGHT(H364, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27612,7 +27582,7 @@
         <v>2150</v>
       </c>
       <c r="O365" t="b">
-        <f>RIGHT(H365, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27654,11 +27624,11 @@
         <v>2156</v>
       </c>
       <c r="O366" t="b">
-        <f>RIGHT(H366, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367" s="5" t="s">
         <v>1367</v>
       </c>
@@ -27696,11 +27666,11 @@
         <v>2160</v>
       </c>
       <c r="O367" t="b">
-        <f>RIGHT(H367, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" s="5" t="s">
         <v>2162</v>
       </c>
@@ -27738,11 +27708,11 @@
         <v>2166</v>
       </c>
       <c r="O368" t="b">
-        <f>RIGHT(H368, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369" s="5" t="s">
         <v>2168</v>
       </c>
@@ -27780,11 +27750,11 @@
         <v>2172</v>
       </c>
       <c r="O369" t="b">
-        <f>RIGHT(H369, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370" s="5" t="s">
         <v>2174</v>
       </c>
@@ -27822,11 +27792,11 @@
         <v>2178</v>
       </c>
       <c r="O370" t="b">
-        <f>RIGHT(H370, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371" s="5" t="s">
         <v>2180</v>
       </c>
@@ -27864,7 +27834,7 @@
         <v>2184</v>
       </c>
       <c r="O371" t="b">
-        <f>RIGHT(H371, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27906,11 +27876,11 @@
         <v>2190</v>
       </c>
       <c r="O372" t="b">
-        <f>RIGHT(H372, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373" s="5" t="s">
         <v>1397</v>
       </c>
@@ -27948,7 +27918,7 @@
         <v>2194</v>
       </c>
       <c r="O373" t="b">
-        <f>RIGHT(H373, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -27990,11 +27960,11 @@
         <v>2198</v>
       </c>
       <c r="O374" t="b">
-        <f>RIGHT(H374, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375" s="5" t="s">
         <v>2200</v>
       </c>
@@ -28032,11 +28002,11 @@
         <v>2204</v>
       </c>
       <c r="O375" t="b">
-        <f>RIGHT(H375, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376" s="5" t="s">
         <v>2206</v>
       </c>
@@ -28074,7 +28044,7 @@
         <v>2210</v>
       </c>
       <c r="O376" t="b">
-        <f>RIGHT(H376, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -28116,11 +28086,11 @@
         <v>2216</v>
       </c>
       <c r="O377" t="b">
-        <f>RIGHT(H377, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378" s="5" t="s">
         <v>208</v>
       </c>
@@ -28158,11 +28128,11 @@
         <v>2220</v>
       </c>
       <c r="O378" t="b">
-        <f>RIGHT(H378, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379" s="5" t="s">
         <v>2222</v>
       </c>
@@ -28200,7 +28170,7 @@
         <v>2226</v>
       </c>
       <c r="O379" t="b">
-        <f>RIGHT(H379, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -28242,7 +28212,7 @@
         <v>2232</v>
       </c>
       <c r="O380" t="b">
-        <f>RIGHT(H380, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -28284,7 +28254,7 @@
         <v>2236</v>
       </c>
       <c r="O381" t="b">
-        <f>RIGHT(H381, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -28326,7 +28296,7 @@
         <v>2240</v>
       </c>
       <c r="O382" t="b">
-        <f>RIGHT(H382, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -28368,11 +28338,11 @@
         <v>2246</v>
       </c>
       <c r="O383" t="b">
-        <f>RIGHT(H383, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384" s="5" t="s">
         <v>2248</v>
       </c>
@@ -28410,7 +28380,7 @@
         <v>2252</v>
       </c>
       <c r="O384" t="b">
-        <f>RIGHT(H384, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -28452,7 +28422,7 @@
         <v>2258</v>
       </c>
       <c r="O385" t="b">
-        <f>RIGHT(H385, 1) = "?"</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -28494,7 +28464,7 @@
         <v>2264</v>
       </c>
       <c r="O386" t="b">
-        <f>RIGHT(H386, 1) = "?"</f>
+        <f t="shared" ref="O386:O449" si="6">RIGHT(H386, 1) = "?"</f>
         <v>0</v>
       </c>
     </row>
@@ -28536,7 +28506,7 @@
         <v>2270</v>
       </c>
       <c r="O387" t="b">
-        <f>RIGHT(H387, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -28578,7 +28548,7 @@
         <v>2276</v>
       </c>
       <c r="O388" t="b">
-        <f>RIGHT(H388, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -28620,7 +28590,7 @@
         <v>2282</v>
       </c>
       <c r="O389" t="b">
-        <f>RIGHT(H389, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -28662,11 +28632,11 @@
         <v>2288</v>
       </c>
       <c r="O390" t="b">
-        <f>RIGHT(H390, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391" s="5" t="s">
         <v>2290</v>
       </c>
@@ -28704,11 +28674,11 @@
         <v>2294</v>
       </c>
       <c r="O391" t="b">
-        <f>RIGHT(H391, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392" s="5" t="s">
         <v>2296</v>
       </c>
@@ -28746,7 +28716,7 @@
         <v>2300</v>
       </c>
       <c r="O392" t="b">
-        <f>RIGHT(H392, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -28788,11 +28758,11 @@
         <v>2306</v>
       </c>
       <c r="O393" t="b">
-        <f>RIGHT(H393, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A394" s="5" t="s">
         <v>2308</v>
       </c>
@@ -28830,7 +28800,7 @@
         <v>2312</v>
       </c>
       <c r="O394" t="b">
-        <f>RIGHT(H394, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -28872,11 +28842,11 @@
         <v>2318</v>
       </c>
       <c r="O395" t="b">
-        <f>RIGHT(H395, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396" s="5" t="s">
         <v>2320</v>
       </c>
@@ -28914,7 +28884,7 @@
         <v>2324</v>
       </c>
       <c r="O396" t="b">
-        <f>RIGHT(H396, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -28956,11 +28926,11 @@
         <v>2330</v>
       </c>
       <c r="O397" t="b">
-        <f>RIGHT(H397, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A398" s="5" t="s">
         <v>2332</v>
       </c>
@@ -28998,11 +28968,11 @@
         <v>2336</v>
       </c>
       <c r="O398" t="b">
-        <f>RIGHT(H398, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A399" s="5" t="s">
         <v>2338</v>
       </c>
@@ -29040,7 +29010,7 @@
         <v>2342</v>
       </c>
       <c r="O399" t="b">
-        <f>RIGHT(H399, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -29082,7 +29052,7 @@
         <v>2348</v>
       </c>
       <c r="O400" t="b">
-        <f>RIGHT(H400, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -29124,7 +29094,7 @@
         <v>2354</v>
       </c>
       <c r="O401" t="b">
-        <f>RIGHT(H401, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -29166,7 +29136,7 @@
         <v>2360</v>
       </c>
       <c r="O402" t="b">
-        <f>RIGHT(H402, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -29208,7 +29178,7 @@
         <v>2366</v>
       </c>
       <c r="O403" t="b">
-        <f>RIGHT(H403, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -29250,11 +29220,11 @@
         <v>2372</v>
       </c>
       <c r="O404" t="b">
-        <f>RIGHT(H404, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A405" s="5" t="s">
         <v>2374</v>
       </c>
@@ -29292,7 +29262,7 @@
         <v>2378</v>
       </c>
       <c r="O405" t="b">
-        <f>RIGHT(H405, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -29334,7 +29304,7 @@
         <v>2384</v>
       </c>
       <c r="O406" t="b">
-        <f>RIGHT(H406, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -29376,11 +29346,11 @@
         <v>2390</v>
       </c>
       <c r="O407" t="b">
-        <f>RIGHT(H407, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408" s="5" t="s">
         <v>2392</v>
       </c>
@@ -29418,11 +29388,11 @@
         <v>2396</v>
       </c>
       <c r="O408" t="b">
-        <f>RIGHT(H408, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409" s="5" t="s">
         <v>2398</v>
       </c>
@@ -29460,7 +29430,7 @@
         <v>2402</v>
       </c>
       <c r="O409" t="b">
-        <f>RIGHT(H409, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -29502,7 +29472,7 @@
         <v>2408</v>
       </c>
       <c r="O410" t="b">
-        <f>RIGHT(H410, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -29544,7 +29514,7 @@
         <v>2414</v>
       </c>
       <c r="O411" t="b">
-        <f>RIGHT(H411, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -29586,11 +29556,11 @@
         <v>2420</v>
       </c>
       <c r="O412" t="b">
-        <f>RIGHT(H412, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A413" s="5" t="s">
         <v>2422</v>
       </c>
@@ -29628,11 +29598,11 @@
         <v>2426</v>
       </c>
       <c r="O413" t="b">
-        <f>RIGHT(H413, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A414" s="5" t="s">
         <v>2428</v>
       </c>
@@ -29670,11 +29640,11 @@
         <v>2432</v>
       </c>
       <c r="O414" t="b">
-        <f>RIGHT(H414, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A415" s="5" t="s">
         <v>2434</v>
       </c>
@@ -29712,7 +29682,7 @@
         <v>2438</v>
       </c>
       <c r="O415" t="b">
-        <f>RIGHT(H415, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -29754,11 +29724,11 @@
         <v>2444</v>
       </c>
       <c r="O416" t="b">
-        <f>RIGHT(H416, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A417" s="5" t="s">
         <v>2446</v>
       </c>
@@ -29796,7 +29766,7 @@
         <v>2450</v>
       </c>
       <c r="O417" t="b">
-        <f>RIGHT(H417, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -29838,11 +29808,11 @@
         <v>2456</v>
       </c>
       <c r="O418" t="b">
-        <f>RIGHT(H418, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A419" s="5" t="s">
         <v>2458</v>
       </c>
@@ -29880,11 +29850,11 @@
         <v>2462</v>
       </c>
       <c r="O419" t="b">
-        <f>RIGHT(H419, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A420" s="5" t="s">
         <v>2464</v>
       </c>
@@ -29922,7 +29892,7 @@
         <v>2468</v>
       </c>
       <c r="O420" t="b">
-        <f>RIGHT(H420, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -29964,7 +29934,7 @@
         <v>2474</v>
       </c>
       <c r="O421" t="b">
-        <f>RIGHT(H421, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -30006,11 +29976,11 @@
         <v>2480</v>
       </c>
       <c r="O422" t="b">
-        <f>RIGHT(H422, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A423" s="5" t="s">
         <v>2482</v>
       </c>
@@ -30048,7 +30018,7 @@
         <v>2486</v>
       </c>
       <c r="O423" t="b">
-        <f>RIGHT(H423, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -30090,11 +30060,11 @@
         <v>2492</v>
       </c>
       <c r="O424" t="b">
-        <f>RIGHT(H424, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A425" s="5" t="s">
         <v>2494</v>
       </c>
@@ -30132,11 +30102,11 @@
         <v>2498</v>
       </c>
       <c r="O425" t="b">
-        <f>RIGHT(H425, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A426" s="5" t="s">
         <v>2500</v>
       </c>
@@ -30174,7 +30144,7 @@
         <v>2504</v>
       </c>
       <c r="O426" t="b">
-        <f>RIGHT(H426, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -30216,11 +30186,11 @@
         <v>2510</v>
       </c>
       <c r="O427" t="b">
-        <f>RIGHT(H427, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A428" s="5" t="s">
         <v>2512</v>
       </c>
@@ -30258,11 +30228,11 @@
         <v>2516</v>
       </c>
       <c r="O428" t="b">
-        <f>RIGHT(H428, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A429" s="5" t="s">
         <v>2518</v>
       </c>
@@ -30300,7 +30270,7 @@
         <v>2522</v>
       </c>
       <c r="O429" t="b">
-        <f>RIGHT(H429, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -30342,7 +30312,7 @@
         <v>2528</v>
       </c>
       <c r="O430" t="b">
-        <f>RIGHT(H430, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -30384,7 +30354,7 @@
         <v>2534</v>
       </c>
       <c r="O431" t="b">
-        <f>RIGHT(H431, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -30426,11 +30396,11 @@
         <v>2540</v>
       </c>
       <c r="O432" t="b">
-        <f>RIGHT(H432, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A433" s="5" t="s">
         <v>2542</v>
       </c>
@@ -30468,11 +30438,11 @@
         <v>2546</v>
       </c>
       <c r="O433" t="b">
-        <f>RIGHT(H433, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A434" s="5" t="s">
         <v>2548</v>
       </c>
@@ -30510,7 +30480,7 @@
         <v>2552</v>
       </c>
       <c r="O434" t="b">
-        <f>RIGHT(H434, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -30552,7 +30522,7 @@
         <v>2558</v>
       </c>
       <c r="O435" t="b">
-        <f>RIGHT(H435, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -30594,11 +30564,11 @@
         <v>2564</v>
       </c>
       <c r="O436" t="b">
-        <f>RIGHT(H436, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A437" s="5" t="s">
         <v>2566</v>
       </c>
@@ -30636,11 +30606,11 @@
         <v>2570</v>
       </c>
       <c r="O437" t="b">
-        <f>RIGHT(H437, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A438" s="5" t="s">
         <v>2572</v>
       </c>
@@ -30678,11 +30648,11 @@
         <v>2576</v>
       </c>
       <c r="O438" t="b">
-        <f>RIGHT(H438, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A439" s="5" t="s">
         <v>2578</v>
       </c>
@@ -30720,11 +30690,11 @@
         <v>2582</v>
       </c>
       <c r="O439" t="b">
-        <f>RIGHT(H439, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A440" s="5" t="s">
         <v>2584</v>
       </c>
@@ -30762,11 +30732,11 @@
         <v>2588</v>
       </c>
       <c r="O440" t="b">
-        <f>RIGHT(H440, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A441" s="5" t="s">
         <v>2590</v>
       </c>
@@ -30804,7 +30774,7 @@
         <v>2594</v>
       </c>
       <c r="O441" t="b">
-        <f>RIGHT(H441, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -30846,7 +30816,7 @@
         <v>2598</v>
       </c>
       <c r="O442" t="b">
-        <f>RIGHT(H442, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -30888,7 +30858,7 @@
         <v>2602</v>
       </c>
       <c r="O443" t="b">
-        <f>RIGHT(H443, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -30930,7 +30900,7 @@
         <v>2608</v>
       </c>
       <c r="O444" t="b">
-        <f>RIGHT(H444, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -30972,7 +30942,7 @@
         <v>2614</v>
       </c>
       <c r="O445" t="b">
-        <f>RIGHT(H445, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -31014,11 +30984,11 @@
         <v>2620</v>
       </c>
       <c r="O446" t="b">
-        <f>RIGHT(H446, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A447" s="5" t="s">
         <v>2622</v>
       </c>
@@ -31056,11 +31026,11 @@
         <v>2626</v>
       </c>
       <c r="O447" t="b">
-        <f>RIGHT(H447, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A448" s="5" t="s">
         <v>2628</v>
       </c>
@@ -31098,7 +31068,7 @@
         <v>2632</v>
       </c>
       <c r="O448" t="b">
-        <f>RIGHT(H448, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -31140,7 +31110,7 @@
         <v>2638</v>
       </c>
       <c r="O449" t="b">
-        <f>RIGHT(H449, 1) = "?"</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -31182,7 +31152,7 @@
         <v>2644</v>
       </c>
       <c r="O450" t="b">
-        <f>RIGHT(H450, 1) = "?"</f>
+        <f t="shared" ref="O450:O513" si="7">RIGHT(H450, 1) = "?"</f>
         <v>0</v>
       </c>
     </row>
@@ -31224,7 +31194,7 @@
         <v>2650</v>
       </c>
       <c r="O451" t="b">
-        <f>RIGHT(H451, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31266,11 +31236,11 @@
         <v>2656</v>
       </c>
       <c r="O452" t="b">
-        <f>RIGHT(H452, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A453" s="5" t="s">
         <v>2658</v>
       </c>
@@ -31308,11 +31278,11 @@
         <v>2662</v>
       </c>
       <c r="O453" t="b">
-        <f>RIGHT(H453, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A454" s="5" t="s">
         <v>2664</v>
       </c>
@@ -31350,11 +31320,11 @@
         <v>2668</v>
       </c>
       <c r="O454" t="b">
-        <f>RIGHT(H454, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A455" s="5" t="s">
         <v>2670</v>
       </c>
@@ -31392,7 +31362,7 @@
         <v>2674</v>
       </c>
       <c r="O455" t="b">
-        <f>RIGHT(H455, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31434,7 +31404,7 @@
         <v>2680</v>
       </c>
       <c r="O456" t="b">
-        <f>RIGHT(H456, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31476,11 +31446,11 @@
         <v>2686</v>
       </c>
       <c r="O457" t="b">
-        <f>RIGHT(H457, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A458" s="5" t="s">
         <v>2688</v>
       </c>
@@ -31518,7 +31488,7 @@
         <v>2692</v>
       </c>
       <c r="O458" t="b">
-        <f>RIGHT(H458, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31560,11 +31530,11 @@
         <v>2698</v>
       </c>
       <c r="O459" t="b">
-        <f>RIGHT(H459, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A460" s="5" t="s">
         <v>2700</v>
       </c>
@@ -31602,7 +31572,7 @@
         <v>2704</v>
       </c>
       <c r="O460" t="b">
-        <f>RIGHT(H460, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31644,11 +31614,11 @@
         <v>2706</v>
       </c>
       <c r="O461" t="b">
-        <f>RIGHT(H461, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A462" s="5" t="s">
         <v>2708</v>
       </c>
@@ -31686,11 +31656,11 @@
         <v>2712</v>
       </c>
       <c r="O462" t="b">
-        <f>RIGHT(H462, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A463" s="5" t="s">
         <v>2714</v>
       </c>
@@ -31728,11 +31698,11 @@
         <v>2718</v>
       </c>
       <c r="O463" t="b">
-        <f>RIGHT(H463, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A464" s="5" t="s">
         <v>2720</v>
       </c>
@@ -31770,11 +31740,11 @@
         <v>2724</v>
       </c>
       <c r="O464" t="b">
-        <f>RIGHT(H464, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A465" s="5" t="s">
         <v>2726</v>
       </c>
@@ -31812,7 +31782,7 @@
         <v>2730</v>
       </c>
       <c r="O465" t="b">
-        <f>RIGHT(H465, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -31854,11 +31824,11 @@
         <v>2736</v>
       </c>
       <c r="O466" t="b">
-        <f>RIGHT(H466, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A467" s="5" t="s">
         <v>2738</v>
       </c>
@@ -31896,11 +31866,11 @@
         <v>2742</v>
       </c>
       <c r="O467" t="b">
-        <f>RIGHT(H467, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A468" s="5" t="s">
         <v>2744</v>
       </c>
@@ -31938,11 +31908,11 @@
         <v>2748</v>
       </c>
       <c r="O468" t="b">
-        <f>RIGHT(H468, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A469" s="5" t="s">
         <v>2750</v>
       </c>
@@ -31980,7 +31950,7 @@
         <v>2754</v>
       </c>
       <c r="O469" t="b">
-        <f>RIGHT(H469, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32022,11 +31992,11 @@
         <v>2760</v>
       </c>
       <c r="O470" t="b">
-        <f>RIGHT(H470, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A471" s="5" t="s">
         <v>2762</v>
       </c>
@@ -32064,7 +32034,7 @@
         <v>2766</v>
       </c>
       <c r="O471" t="b">
-        <f>RIGHT(H471, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32106,7 +32076,7 @@
         <v>2772</v>
       </c>
       <c r="O472" t="b">
-        <f>RIGHT(H472, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32148,11 +32118,11 @@
         <v>2778</v>
       </c>
       <c r="O473" t="b">
-        <f>RIGHT(H473, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A474" s="5" t="s">
         <v>2780</v>
       </c>
@@ -32190,11 +32160,11 @@
         <v>2784</v>
       </c>
       <c r="O474" t="b">
-        <f>RIGHT(H474, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A475" s="5" t="s">
         <v>2786</v>
       </c>
@@ -32232,7 +32202,7 @@
         <v>2790</v>
       </c>
       <c r="O475" t="b">
-        <f>RIGHT(H475, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32274,11 +32244,11 @@
         <v>1419</v>
       </c>
       <c r="O476" t="b">
-        <f>RIGHT(H476, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A477" s="5" t="s">
         <v>2795</v>
       </c>
@@ -32316,7 +32286,7 @@
         <v>2799</v>
       </c>
       <c r="O477" t="b">
-        <f>RIGHT(H477, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32358,11 +32328,11 @@
         <v>2805</v>
       </c>
       <c r="O478" t="b">
-        <f>RIGHT(H478, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A479" s="5" t="s">
         <v>2807</v>
       </c>
@@ -32400,7 +32370,7 @@
         <v>2811</v>
       </c>
       <c r="O479" t="b">
-        <f>RIGHT(H479, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32442,11 +32412,11 @@
         <v>2817</v>
       </c>
       <c r="O480" t="b">
-        <f>RIGHT(H480, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A481" s="5" t="s">
         <v>2819</v>
       </c>
@@ -32484,11 +32454,11 @@
         <v>2823</v>
       </c>
       <c r="O481" t="b">
-        <f>RIGHT(H481, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A482" s="5" t="s">
         <v>2825</v>
       </c>
@@ -32526,7 +32496,7 @@
         <v>2829</v>
       </c>
       <c r="O482" t="b">
-        <f>RIGHT(H482, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32568,11 +32538,11 @@
         <v>2835</v>
       </c>
       <c r="O483" t="b">
-        <f>RIGHT(H483, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A484" s="5" t="s">
         <v>2837</v>
       </c>
@@ -32610,11 +32580,11 @@
         <v>2841</v>
       </c>
       <c r="O484" t="b">
-        <f>RIGHT(H484, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A485" s="5" t="s">
         <v>2843</v>
       </c>
@@ -32652,7 +32622,7 @@
         <v>2847</v>
       </c>
       <c r="O485" t="b">
-        <f>RIGHT(H485, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32694,7 +32664,7 @@
         <v>2853</v>
       </c>
       <c r="O486" t="b">
-        <f>RIGHT(H486, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -32736,7 +32706,7 @@
         <v>2859</v>
       </c>
       <c r="O487" t="b">
-        <f>RIGHT(H487, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32778,7 +32748,7 @@
         <v>2865</v>
       </c>
       <c r="O488" t="b">
-        <f>RIGHT(H488, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32820,7 +32790,7 @@
         <v>2871</v>
       </c>
       <c r="O489" t="b">
-        <f>RIGHT(H489, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32862,11 +32832,11 @@
         <v>2877</v>
       </c>
       <c r="O490" t="b">
-        <f>RIGHT(H490, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A491" s="5" t="s">
         <v>2879</v>
       </c>
@@ -32904,7 +32874,7 @@
         <v>2883</v>
       </c>
       <c r="O491" t="b">
-        <f>RIGHT(H491, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -32946,11 +32916,11 @@
         <v>2889</v>
       </c>
       <c r="O492" t="b">
-        <f>RIGHT(H492, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A493" s="5" t="s">
         <v>2891</v>
       </c>
@@ -32988,7 +32958,7 @@
         <v>2895</v>
       </c>
       <c r="O493" t="b">
-        <f>RIGHT(H493, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -33030,11 +33000,11 @@
         <v>2901</v>
       </c>
       <c r="O494" t="b">
-        <f>RIGHT(H494, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A495" s="5" t="s">
         <v>2903</v>
       </c>
@@ -33072,11 +33042,11 @@
         <v>2908</v>
       </c>
       <c r="O495" t="b">
-        <f>RIGHT(H495, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A496" s="5" t="s">
         <v>2910</v>
       </c>
@@ -33114,11 +33084,11 @@
         <v>2914</v>
       </c>
       <c r="O496" t="b">
-        <f>RIGHT(H496, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A497" s="5" t="s">
         <v>2916</v>
       </c>
@@ -33156,11 +33126,11 @@
         <v>2920</v>
       </c>
       <c r="O497" t="b">
-        <f>RIGHT(H497, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A498" s="5" t="s">
         <v>2922</v>
       </c>
@@ -33198,7 +33168,7 @@
         <v>2926</v>
       </c>
       <c r="O498" t="b">
-        <f>RIGHT(H498, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -33240,7 +33210,7 @@
         <v>2932</v>
       </c>
       <c r="O499" t="b">
-        <f>RIGHT(H499, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -33282,7 +33252,7 @@
         <v>2938</v>
       </c>
       <c r="O500" t="b">
-        <f>RIGHT(H500, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -33324,11 +33294,11 @@
         <v>2944</v>
       </c>
       <c r="O501" t="b">
-        <f>RIGHT(H501, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A502" s="5" t="s">
         <v>2946</v>
       </c>
@@ -33366,11 +33336,11 @@
         <v>2950</v>
       </c>
       <c r="O502" t="b">
-        <f>RIGHT(H502, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A503" s="5" t="s">
         <v>2952</v>
       </c>
@@ -33408,7 +33378,7 @@
         <v>2956</v>
       </c>
       <c r="O503" t="b">
-        <f>RIGHT(H503, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -33450,7 +33420,7 @@
         <v>2962</v>
       </c>
       <c r="O504" t="b">
-        <f>RIGHT(H504, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -33492,7 +33462,7 @@
         <v>2968</v>
       </c>
       <c r="O505" t="b">
-        <f>RIGHT(H505, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -33534,7 +33504,7 @@
         <v>2974</v>
       </c>
       <c r="O506" t="b">
-        <f>RIGHT(H506, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -33576,11 +33546,11 @@
         <v>2980</v>
       </c>
       <c r="O507" t="b">
-        <f>RIGHT(H507, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A508" s="5" t="s">
         <v>2982</v>
       </c>
@@ -33618,7 +33588,7 @@
         <v>2986</v>
       </c>
       <c r="O508" t="b">
-        <f>RIGHT(H508, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -33660,11 +33630,11 @@
         <v>2992</v>
       </c>
       <c r="O509" t="b">
-        <f>RIGHT(H509, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A510" s="5" t="s">
         <v>2994</v>
       </c>
@@ -33702,11 +33672,11 @@
         <v>2998</v>
       </c>
       <c r="O510" t="b">
-        <f>RIGHT(H510, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A511" s="5" t="s">
         <v>3000</v>
       </c>
@@ -33744,7 +33714,7 @@
         <v>3004</v>
       </c>
       <c r="O511" t="b">
-        <f>RIGHT(H511, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -33786,11 +33756,11 @@
         <v>3010</v>
       </c>
       <c r="O512" t="b">
-        <f>RIGHT(H512, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A513" s="5" t="s">
         <v>3012</v>
       </c>
@@ -33828,7 +33798,7 @@
         <v>3016</v>
       </c>
       <c r="O513" t="b">
-        <f>RIGHT(H513, 1) = "?"</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -33870,11 +33840,11 @@
         <v>3022</v>
       </c>
       <c r="O514" t="b">
-        <f>RIGHT(H514, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="O514:O577" si="8">RIGHT(H514, 1) = "?"</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A515" s="5" t="s">
         <v>3024</v>
       </c>
@@ -33912,11 +33882,11 @@
         <v>3028</v>
       </c>
       <c r="O515" t="b">
-        <f>RIGHT(H515, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A516" s="5" t="s">
         <v>3030</v>
       </c>
@@ -33954,11 +33924,11 @@
         <v>3034</v>
       </c>
       <c r="O516" t="b">
-        <f>RIGHT(H516, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A517" s="5" t="s">
         <v>3036</v>
       </c>
@@ -33996,7 +33966,7 @@
         <v>3040</v>
       </c>
       <c r="O517" t="b">
-        <f>RIGHT(H517, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -34038,11 +34008,11 @@
         <v>3046</v>
       </c>
       <c r="O518" t="b">
-        <f>RIGHT(H518, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A519" s="5" t="s">
         <v>3048</v>
       </c>
@@ -34080,7 +34050,7 @@
         <v>3052</v>
       </c>
       <c r="O519" t="b">
-        <f>RIGHT(H519, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -34122,11 +34092,11 @@
         <v>3058</v>
       </c>
       <c r="O520" t="b">
-        <f>RIGHT(H520, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="521" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A521" s="5" t="s">
         <v>602</v>
       </c>
@@ -34164,7 +34134,7 @@
         <v>3062</v>
       </c>
       <c r="O521" t="b">
-        <f>RIGHT(H521, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -34206,11 +34176,11 @@
         <v>3068</v>
       </c>
       <c r="O522" t="b">
-        <f>RIGHT(H522, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A523" s="5" t="s">
         <v>3070</v>
       </c>
@@ -34248,7 +34218,7 @@
         <v>3074</v>
       </c>
       <c r="O523" t="b">
-        <f>RIGHT(H523, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -34290,7 +34260,7 @@
         <v>3080</v>
       </c>
       <c r="O524" t="b">
-        <f>RIGHT(H524, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -34332,11 +34302,11 @@
         <v>3086</v>
       </c>
       <c r="O525" t="b">
-        <f>RIGHT(H525, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="526" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A526" s="5" t="s">
         <v>3088</v>
       </c>
@@ -34374,7 +34344,7 @@
         <v>3092</v>
       </c>
       <c r="O526" t="b">
-        <f>RIGHT(H526, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -34416,7 +34386,7 @@
         <v>3098</v>
       </c>
       <c r="O527" t="b">
-        <f>RIGHT(H527, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -34458,7 +34428,7 @@
         <v>3104</v>
       </c>
       <c r="O528" t="b">
-        <f>RIGHT(H528, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -34500,7 +34470,7 @@
         <v>3108</v>
       </c>
       <c r="O529" t="b">
-        <f>RIGHT(H529, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -34542,11 +34512,11 @@
         <v>3114</v>
       </c>
       <c r="O530" t="b">
-        <f>RIGHT(H530, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="531" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A531" s="5" t="s">
         <v>3116</v>
       </c>
@@ -34584,11 +34554,11 @@
         <v>3120</v>
       </c>
       <c r="O531" t="b">
-        <f>RIGHT(H531, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="532" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A532" s="5" t="s">
         <v>3122</v>
       </c>
@@ -34626,11 +34596,11 @@
         <v>3126</v>
       </c>
       <c r="O532" t="b">
-        <f>RIGHT(H532, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="533" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A533" s="5" t="s">
         <v>3128</v>
       </c>
@@ -34668,7 +34638,7 @@
         <v>3132</v>
       </c>
       <c r="O533" t="b">
-        <f>RIGHT(H533, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -34710,11 +34680,11 @@
         <v>3138</v>
       </c>
       <c r="O534" t="b">
-        <f>RIGHT(H534, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="535" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A535" s="5" t="s">
         <v>3140</v>
       </c>
@@ -34752,11 +34722,11 @@
         <v>3144</v>
       </c>
       <c r="O535" t="b">
-        <f>RIGHT(H535, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="536" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A536" s="5" t="s">
         <v>3146</v>
       </c>
@@ -34794,11 +34764,11 @@
         <v>3150</v>
       </c>
       <c r="O536" t="b">
-        <f>RIGHT(H536, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="537" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A537" s="5" t="s">
         <v>3152</v>
       </c>
@@ -34836,11 +34806,11 @@
         <v>3156</v>
       </c>
       <c r="O537" t="b">
-        <f>RIGHT(H537, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A538" s="5" t="s">
         <v>3158</v>
       </c>
@@ -34878,7 +34848,7 @@
         <v>3162</v>
       </c>
       <c r="O538" t="b">
-        <f>RIGHT(H538, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -34920,11 +34890,11 @@
         <v>3166</v>
       </c>
       <c r="O539" t="b">
-        <f>RIGHT(H539, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A540" s="5" t="s">
         <v>3168</v>
       </c>
@@ -34962,7 +34932,7 @@
         <v>3172</v>
       </c>
       <c r="O540" t="b">
-        <f>RIGHT(H540, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35004,7 +34974,7 @@
         <v>3178</v>
       </c>
       <c r="O541" t="b">
-        <f>RIGHT(H541, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35046,7 +35016,7 @@
         <v>3184</v>
       </c>
       <c r="O542" t="b">
-        <f>RIGHT(H542, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35088,11 +35058,11 @@
         <v>3191</v>
       </c>
       <c r="O543" t="b">
-        <f>RIGHT(H543, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="544" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A544" s="5" t="s">
         <v>3193</v>
       </c>
@@ -35130,7 +35100,7 @@
         <v>3197</v>
       </c>
       <c r="O544" t="b">
-        <f>RIGHT(H544, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35172,11 +35142,11 @@
         <v>3203</v>
       </c>
       <c r="O545" t="b">
-        <f>RIGHT(H545, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="546" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A546" s="5" t="s">
         <v>3205</v>
       </c>
@@ -35214,7 +35184,7 @@
         <v>3209</v>
       </c>
       <c r="O546" t="b">
-        <f>RIGHT(H546, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35256,11 +35226,11 @@
         <v>3215</v>
       </c>
       <c r="O547" t="b">
-        <f>RIGHT(H547, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="548" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A548" s="5" t="s">
         <v>3217</v>
       </c>
@@ -35298,7 +35268,7 @@
         <v>3221</v>
       </c>
       <c r="O548" t="b">
-        <f>RIGHT(H548, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35340,7 +35310,7 @@
         <v>3227</v>
       </c>
       <c r="O549" t="b">
-        <f>RIGHT(H549, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35382,11 +35352,11 @@
         <v>3231</v>
       </c>
       <c r="O550" t="b">
-        <f>RIGHT(H550, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="551" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A551" s="5" t="s">
         <v>3233</v>
       </c>
@@ -35424,7 +35394,7 @@
         <v>3237</v>
       </c>
       <c r="O551" t="b">
-        <f>RIGHT(H551, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35466,11 +35436,11 @@
         <v>3243</v>
       </c>
       <c r="O552" t="b">
-        <f>RIGHT(H552, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="553" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A553" s="5" t="s">
         <v>3245</v>
       </c>
@@ -35508,7 +35478,7 @@
         <v>3249</v>
       </c>
       <c r="O553" t="b">
-        <f>RIGHT(H553, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35550,11 +35520,11 @@
         <v>3252</v>
       </c>
       <c r="O554" t="b">
-        <f>RIGHT(H554, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="555" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A555" s="5" t="s">
         <v>3254</v>
       </c>
@@ -35592,11 +35562,11 @@
         <v>3258</v>
       </c>
       <c r="O555" t="b">
-        <f>RIGHT(H555, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="556" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A556" s="5" t="s">
         <v>3260</v>
       </c>
@@ -35634,7 +35604,7 @@
         <v>3264</v>
       </c>
       <c r="O556" t="b">
-        <f>RIGHT(H556, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35676,7 +35646,7 @@
         <v>3270</v>
       </c>
       <c r="O557" t="b">
-        <f>RIGHT(H557, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35718,11 +35688,11 @@
         <v>3276</v>
       </c>
       <c r="O558" t="b">
-        <f>RIGHT(H558, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="559" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A559" s="5" t="s">
         <v>3278</v>
       </c>
@@ -35760,11 +35730,11 @@
         <v>3282</v>
       </c>
       <c r="O559" t="b">
-        <f>RIGHT(H559, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="560" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A560" s="5" t="s">
         <v>3284</v>
       </c>
@@ -35802,11 +35772,11 @@
         <v>3288</v>
       </c>
       <c r="O560" t="b">
-        <f>RIGHT(H560, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="561" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A561" s="5" t="s">
         <v>3290</v>
       </c>
@@ -35844,11 +35814,11 @@
         <v>3294</v>
       </c>
       <c r="O561" t="b">
-        <f>RIGHT(H561, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="562" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A562" s="5" t="s">
         <v>3296</v>
       </c>
@@ -35886,11 +35856,11 @@
         <v>3300</v>
       </c>
       <c r="O562" t="b">
-        <f>RIGHT(H562, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="563" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A563" s="5" t="s">
         <v>3302</v>
       </c>
@@ -35928,7 +35898,7 @@
         <v>3306</v>
       </c>
       <c r="O563" t="b">
-        <f>RIGHT(H563, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -35970,11 +35940,11 @@
         <v>3312</v>
       </c>
       <c r="O564" t="b">
-        <f>RIGHT(H564, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="565" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A565" s="5" t="s">
         <v>3314</v>
       </c>
@@ -36012,11 +35982,11 @@
         <v>3318</v>
       </c>
       <c r="O565" t="b">
-        <f>RIGHT(H565, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="566" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A566" s="5" t="s">
         <v>3320</v>
       </c>
@@ -36054,7 +36024,7 @@
         <v>3324</v>
       </c>
       <c r="O566" t="b">
-        <f>RIGHT(H566, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -36096,11 +36066,11 @@
         <v>3330</v>
       </c>
       <c r="O567" t="b">
-        <f>RIGHT(H567, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="568" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A568" s="5" t="s">
         <v>3332</v>
       </c>
@@ -36138,11 +36108,11 @@
         <v>3336</v>
       </c>
       <c r="O568" t="b">
-        <f>RIGHT(H568, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="569" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A569" s="5" t="s">
         <v>3338</v>
       </c>
@@ -36180,7 +36150,7 @@
         <v>3342</v>
       </c>
       <c r="O569" t="b">
-        <f>RIGHT(H569, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -36222,7 +36192,7 @@
         <v>3348</v>
       </c>
       <c r="O570" t="b">
-        <f>RIGHT(H570, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -36264,7 +36234,7 @@
         <v>3354</v>
       </c>
       <c r="O571" t="b">
-        <f>RIGHT(H571, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -36306,11 +36276,11 @@
         <v>3360</v>
       </c>
       <c r="O572" t="b">
-        <f>RIGHT(H572, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="573" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A573" s="5" t="s">
         <v>3362</v>
       </c>
@@ -36348,7 +36318,7 @@
         <v>3366</v>
       </c>
       <c r="O573" t="b">
-        <f>RIGHT(H573, 1) = "?"</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -36390,11 +36360,11 @@
         <v>3372</v>
       </c>
       <c r="O574" t="b">
-        <f>RIGHT(H574, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="575" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A575" s="5" t="s">
         <v>3374</v>
       </c>
@@ -36432,11 +36402,11 @@
         <v>3378</v>
       </c>
       <c r="O575" t="b">
-        <f>RIGHT(H575, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="576" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A576" s="5" t="s">
         <v>3380</v>
       </c>
@@ -36474,11 +36444,11 @@
         <v>3384</v>
       </c>
       <c r="O576" t="b">
-        <f>RIGHT(H576, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="577" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A577" s="5" t="s">
         <v>3386</v>
       </c>
@@ -36516,11 +36486,11 @@
         <v>3390</v>
       </c>
       <c r="O577" t="b">
-        <f>RIGHT(H577, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="578" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A578" s="5" t="s">
         <v>3392</v>
       </c>
@@ -36558,11 +36528,11 @@
         <v>3396</v>
       </c>
       <c r="O578" t="b">
-        <f>RIGHT(H578, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="579" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="O578:O641" si="9">RIGHT(H578, 1) = "?"</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A579" s="5" t="s">
         <v>3398</v>
       </c>
@@ -36600,7 +36570,7 @@
         <v>3402</v>
       </c>
       <c r="O579" t="b">
-        <f>RIGHT(H579, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -36642,7 +36612,7 @@
         <v>3408</v>
       </c>
       <c r="O580" t="b">
-        <f>RIGHT(H580, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -36684,11 +36654,11 @@
         <v>1688</v>
       </c>
       <c r="O581" t="b">
-        <f>RIGHT(H581, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A582" s="5" t="s">
         <v>178</v>
       </c>
@@ -36726,11 +36696,11 @@
         <v>3418</v>
       </c>
       <c r="O582" t="b">
-        <f>RIGHT(H582, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="583" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A583" s="5" t="s">
         <v>3420</v>
       </c>
@@ -36768,7 +36738,7 @@
         <v>3424</v>
       </c>
       <c r="O583" t="b">
-        <f>RIGHT(H583, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -36810,7 +36780,7 @@
         <v>3429</v>
       </c>
       <c r="O584" t="b">
-        <f>RIGHT(H584, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -36852,11 +36822,11 @@
         <v>3435</v>
       </c>
       <c r="O585" t="b">
-        <f>RIGHT(H585, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="586" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A586" s="5" t="s">
         <v>3437</v>
       </c>
@@ -36894,7 +36864,7 @@
         <v>3441</v>
       </c>
       <c r="O586" t="b">
-        <f>RIGHT(H586, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -36936,11 +36906,11 @@
         <v>3447</v>
       </c>
       <c r="O587" t="b">
-        <f>RIGHT(H587, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A588" s="5" t="s">
         <v>3449</v>
       </c>
@@ -36978,7 +36948,7 @@
         <v>3453</v>
       </c>
       <c r="O588" t="b">
-        <f>RIGHT(H588, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -37020,7 +36990,7 @@
         <v>3459</v>
       </c>
       <c r="O589" t="b">
-        <f>RIGHT(H589, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -37062,11 +37032,11 @@
         <v>3465</v>
       </c>
       <c r="O590" t="b">
-        <f>RIGHT(H590, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="591" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A591" s="5" t="s">
         <v>3467</v>
       </c>
@@ -37104,7 +37074,7 @@
         <v>3471</v>
       </c>
       <c r="O591" t="b">
-        <f>RIGHT(H591, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -37146,7 +37116,7 @@
         <v>3476</v>
       </c>
       <c r="O592" t="b">
-        <f>RIGHT(H592, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -37188,7 +37158,7 @@
         <v>3482</v>
       </c>
       <c r="O593" t="b">
-        <f>RIGHT(H593, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -37230,11 +37200,11 @@
         <v>3488</v>
       </c>
       <c r="O594" t="b">
-        <f>RIGHT(H594, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="595" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A595" s="5" t="s">
         <v>3490</v>
       </c>
@@ -37272,11 +37242,11 @@
         <v>3494</v>
       </c>
       <c r="O595" t="b">
-        <f>RIGHT(H595, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="596" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A596" s="5" t="s">
         <v>1455</v>
       </c>
@@ -37314,11 +37284,11 @@
         <v>3497</v>
       </c>
       <c r="O596" t="b">
-        <f>RIGHT(H596, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="597" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A597" s="5" t="s">
         <v>3499</v>
       </c>
@@ -37356,7 +37326,7 @@
         <v>3503</v>
       </c>
       <c r="O597" t="b">
-        <f>RIGHT(H597, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -37398,7 +37368,7 @@
         <v>3509</v>
       </c>
       <c r="O598" t="b">
-        <f>RIGHT(H598, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -37440,11 +37410,11 @@
         <v>3515</v>
       </c>
       <c r="O599" t="b">
-        <f>RIGHT(H599, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A600" s="5" t="s">
         <v>3517</v>
       </c>
@@ -37482,7 +37452,7 @@
         <v>3521</v>
       </c>
       <c r="O600" t="b">
-        <f>RIGHT(H600, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -37524,11 +37494,11 @@
         <v>3527</v>
       </c>
       <c r="O601" t="b">
-        <f>RIGHT(H601, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="602" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A602" s="5" t="s">
         <v>3529</v>
       </c>
@@ -37566,7 +37536,7 @@
         <v>3533</v>
       </c>
       <c r="O602" t="b">
-        <f>RIGHT(H602, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -37608,7 +37578,7 @@
         <v>3539</v>
       </c>
       <c r="O603" t="b">
-        <f>RIGHT(H603, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -37650,11 +37620,11 @@
         <v>3545</v>
       </c>
       <c r="O604" t="b">
-        <f>RIGHT(H604, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="605" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A605" s="5" t="s">
         <v>3547</v>
       </c>
@@ -37692,7 +37662,7 @@
         <v>3551</v>
       </c>
       <c r="O605" t="b">
-        <f>RIGHT(H605, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -37734,7 +37704,7 @@
         <v>3557</v>
       </c>
       <c r="O606" t="b">
-        <f>RIGHT(H606, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -37776,7 +37746,7 @@
         <v>3561</v>
       </c>
       <c r="O607" t="b">
-        <f>RIGHT(H607, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -37818,11 +37788,11 @@
         <v>3567</v>
       </c>
       <c r="O608" t="b">
-        <f>RIGHT(H608, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="609" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A609" s="5" t="s">
         <v>3569</v>
       </c>
@@ -37860,7 +37830,7 @@
         <v>3573</v>
       </c>
       <c r="O609" t="b">
-        <f>RIGHT(H609, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -37902,7 +37872,7 @@
         <v>3579</v>
       </c>
       <c r="O610" t="b">
-        <f>RIGHT(H610, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -37944,7 +37914,7 @@
         <v>3585</v>
       </c>
       <c r="O611" t="b">
-        <f>RIGHT(H611, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -37986,11 +37956,11 @@
         <v>3591</v>
       </c>
       <c r="O612" t="b">
-        <f>RIGHT(H612, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="613" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A613" s="5" t="s">
         <v>3593</v>
       </c>
@@ -38028,11 +37998,11 @@
         <v>3597</v>
       </c>
       <c r="O613" t="b">
-        <f>RIGHT(H613, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="614" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A614" s="5" t="s">
         <v>3599</v>
       </c>
@@ -38070,7 +38040,7 @@
         <v>3603</v>
       </c>
       <c r="O614" t="b">
-        <f>RIGHT(H614, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -38112,7 +38082,7 @@
         <v>3609</v>
       </c>
       <c r="O615" t="b">
-        <f>RIGHT(H615, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -38154,7 +38124,7 @@
         <v>3615</v>
       </c>
       <c r="O616" t="b">
-        <f>RIGHT(H616, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -38196,7 +38166,7 @@
         <v>3621</v>
       </c>
       <c r="O617" t="b">
-        <f>RIGHT(H617, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -38238,7 +38208,7 @@
         <v>3627</v>
       </c>
       <c r="O618" t="b">
-        <f>RIGHT(H618, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -38280,11 +38250,11 @@
         <v>3633</v>
       </c>
       <c r="O619" t="b">
-        <f>RIGHT(H619, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="620" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A620" s="5" t="s">
         <v>3635</v>
       </c>
@@ -38322,7 +38292,7 @@
         <v>3639</v>
       </c>
       <c r="O620" t="b">
-        <f>RIGHT(H620, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -38364,7 +38334,7 @@
         <v>3645</v>
       </c>
       <c r="O621" t="b">
-        <f>RIGHT(H621, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -38406,7 +38376,7 @@
         <v>3651</v>
       </c>
       <c r="O622" t="b">
-        <f>RIGHT(H622, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -38448,7 +38418,7 @@
         <v>3657</v>
       </c>
       <c r="O623" t="b">
-        <f>RIGHT(H623, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -38490,7 +38460,7 @@
         <v>3663</v>
       </c>
       <c r="O624" t="b">
-        <f>RIGHT(H624, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -38532,7 +38502,7 @@
         <v>3669</v>
       </c>
       <c r="O625" t="b">
-        <f>RIGHT(H625, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -38574,11 +38544,11 @@
         <v>3675</v>
       </c>
       <c r="O626" t="b">
-        <f>RIGHT(H626, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="627" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A627" s="5" t="s">
         <v>3677</v>
       </c>
@@ -38616,7 +38586,7 @@
         <v>3681</v>
       </c>
       <c r="O627" t="b">
-        <f>RIGHT(H627, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -38658,11 +38628,11 @@
         <v>3687</v>
       </c>
       <c r="O628" t="b">
-        <f>RIGHT(H628, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="629" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A629" s="5" t="s">
         <v>3689</v>
       </c>
@@ -38700,7 +38670,7 @@
         <v>3693</v>
       </c>
       <c r="O629" t="b">
-        <f>RIGHT(H629, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -38742,11 +38712,11 @@
         <v>3726</v>
       </c>
       <c r="O630" t="b">
-        <f>RIGHT(H630, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="631" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A631" s="2" t="s">
         <v>3703</v>
       </c>
@@ -38784,11 +38754,11 @@
         <v>3711</v>
       </c>
       <c r="O631" t="b">
-        <f>RIGHT(H631, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="632" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A632" s="2" t="s">
         <v>3705</v>
       </c>
@@ -38826,11 +38796,11 @@
         <v>3716</v>
       </c>
       <c r="O632" t="b">
-        <f>RIGHT(H632, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="633" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A633" s="2" t="s">
         <v>3717</v>
       </c>
@@ -38868,11 +38838,11 @@
         <v>3722</v>
       </c>
       <c r="O633" t="b">
-        <f>RIGHT(H633, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="634" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A634" s="2" t="s">
         <v>3728</v>
       </c>
@@ -38910,7 +38880,7 @@
         <v>3732</v>
       </c>
       <c r="O634" t="b">
-        <f>RIGHT(H634, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -38952,7 +38922,7 @@
         <v>3738</v>
       </c>
       <c r="O635" t="b">
-        <f>RIGHT(H635, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -38994,7 +38964,7 @@
         <v>3744</v>
       </c>
       <c r="O636" t="b">
-        <f>RIGHT(H636, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -39036,7 +39006,7 @@
         <v>14</v>
       </c>
       <c r="O637" t="b">
-        <f>RIGHT(H637, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -39078,7 +39048,7 @@
         <v>3806</v>
       </c>
       <c r="O638" t="b">
-        <f>RIGHT(H638, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -39120,7 +39090,7 @@
         <v>3809</v>
       </c>
       <c r="O639" t="b">
-        <f>RIGHT(H639, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -39162,7 +39132,7 @@
         <v>3812</v>
       </c>
       <c r="O640" t="b">
-        <f>RIGHT(H640, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -39204,7 +39174,7 @@
         <v>3815</v>
       </c>
       <c r="O641" t="b">
-        <f>RIGHT(H641, 1) = "?"</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -39246,7 +39216,7 @@
         <v>3818</v>
       </c>
       <c r="O642" t="b">
-        <f>RIGHT(H642, 1) = "?"</f>
+        <f t="shared" ref="O642:O661" si="10">RIGHT(H642, 1) = "?"</f>
         <v>0</v>
       </c>
     </row>
@@ -39288,7 +39258,7 @@
         <v>3821</v>
       </c>
       <c r="O643" t="b">
-        <f>RIGHT(H643, 1) = "?"</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -39330,11 +39300,11 @@
         <v>3824</v>
       </c>
       <c r="O644" t="b">
-        <f>RIGHT(H644, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="645" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A645" s="2" t="s">
         <v>3767</v>
       </c>
@@ -39372,7 +39342,7 @@
         <v>3827</v>
       </c>
       <c r="O645" t="b">
-        <f>RIGHT(H645, 1) = "?"</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -39414,7 +39384,7 @@
         <v>3830</v>
       </c>
       <c r="O646" t="b">
-        <f>RIGHT(H646, 1) = "?"</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -39456,7 +39426,7 @@
         <v>3833</v>
       </c>
       <c r="O647" t="b">
-        <f>RIGHT(H647, 1) = "?"</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -39498,7 +39468,7 @@
         <v>3836</v>
       </c>
       <c r="O648" t="b">
-        <f>RIGHT(H648, 1) = "?"</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -39540,7 +39510,7 @@
         <v>3839</v>
       </c>
       <c r="O649" t="b">
-        <f>RIGHT(H649, 1) = "?"</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -39582,7 +39552,7 @@
         <v>3842</v>
       </c>
       <c r="O650" t="b">
-        <f>RIGHT(H650, 1) = "?"</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -39624,11 +39594,11 @@
         <v>3845</v>
       </c>
       <c r="O651" t="b">
-        <f>RIGHT(H651, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="652" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A652" s="2" t="s">
         <v>3788</v>
       </c>
@@ -39666,11 +39636,11 @@
         <v>3848</v>
       </c>
       <c r="O652" t="b">
-        <f>RIGHT(H652, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="653" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A653" s="2" t="s">
         <v>3791</v>
       </c>
@@ -39708,7 +39678,7 @@
         <v>3851</v>
       </c>
       <c r="O653" t="b">
-        <f>RIGHT(H653, 1) = "?"</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -39750,7 +39720,7 @@
         <v>3854</v>
       </c>
       <c r="O654" t="b">
-        <f>RIGHT(H654, 1) = "?"</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -39792,7 +39762,7 @@
         <v>3857</v>
       </c>
       <c r="O655" t="b">
-        <f>RIGHT(H655, 1) = "?"</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -39834,7 +39804,7 @@
         <v>3860</v>
       </c>
       <c r="O656" t="b">
-        <f>RIGHT(H656, 1) = "?"</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -39876,7 +39846,7 @@
         <v>3863</v>
       </c>
       <c r="O657" t="b">
-        <f>RIGHT(H657, 1) = "?"</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -39918,7 +39888,7 @@
         <v>3869</v>
       </c>
       <c r="O658" t="b">
-        <f>RIGHT(H658, 1) = "?"</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -39960,11 +39930,11 @@
         <v>3875</v>
       </c>
       <c r="O659" t="b">
-        <f>RIGHT(H659, 1) = "?"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="660" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A660" s="2" t="s">
         <v>3877</v>
       </c>
@@ -40002,7 +39972,7 @@
         <v>3881</v>
       </c>
       <c r="O660" t="b">
-        <f>RIGHT(H660, 1) = "?"</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -40044,7 +40014,7 @@
         <v>3887</v>
       </c>
       <c r="O661" t="b">
-        <f>RIGHT(H661, 1) = "?"</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -40078,17 +40048,17 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P668" xr:uid="{6C53EE86-D375-4DA2-9D9C-6E042FFD3B4D}"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B1:B162">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K162">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P6">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/600 vocabulary common.xlsx
+++ b/600 vocabulary common.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haith\OneDrive\Desktop\Project Coding\AnkiConnectJavascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D7D044-E21B-431A-BC47-1D7488DADC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9A02B0-C859-4151-8889-B6E72DDAD055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8705A7C4-DBF4-4EA4-AC57-4411831D823D}"/>
+    <workbookView xWindow="5580" yWindow="276" windowWidth="17280" windowHeight="8880" xr2:uid="{8705A7C4-DBF4-4EA4-AC57-4411831D823D}"/>
   </bookViews>
   <sheets>
     <sheet name="1-600" sheetId="1" r:id="rId1"/>
@@ -12222,8 +12222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C53EE86-D375-4DA2-9D9C-6E042FFD3B4D}">
   <dimension ref="A1:P668"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H424" sqref="H424"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40066,18 +40066,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40314,6 +40314,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7390EE2F-0C48-4D43-A1FC-2AC5A2F5C224}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EBD8C6B-5BFF-4BC4-A3FD-8AD7598EA71F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -40326,14 +40334,6 @@
     <ds:schemaRef ds:uri="9c13fae4-8f0e-4bf7-bb6a-9b6c2448ce3a"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7390EE2F-0C48-4D43-A1FC-2AC5A2F5C224}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
